--- a/Interview Questions for Data Science.xlsx
+++ b/Interview Questions for Data Science.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10725"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddharthchauhan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C5CD9-8B4D-4549-B577-89CD468706D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Questions" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Case Study for Interview'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Interview Questions'!$A$1:$C$668</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Interview Questions'!$A$1:$C$991</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1277">
   <si>
     <t>Case study on Retail analysis case</t>
   </si>
@@ -3854,12 +3853,42 @@
   <si>
     <t>Q: Business related questions of how to evaluate impact of a spam detection model that would re-rank users' news feeds.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Two tables:   User actions: date|sessio_id|userid|event  session details: date|Sessionid|timespent_Sec|userid    1. Identify avg time spent per user per day   2. Create a histogram of duration on x axis, no of users on y axis which is populated by volume in each bucket </t>
+  </si>
+  <si>
+    <t>1. Wants to add a new banner on FB Market place which suggests to sell something on facebook , should they do it, what should be done to evaluate it ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Market place transactions happen through messages - these messages went down by 10% in a month, should they be worried ? How would you go about analyzing it?</t>
+  </si>
+  <si>
+    <t>Given a table with columns country (with two-letter country abbreviation), count of requests sent, percentage of requests sent failed, condense down to this data grouped by country: country (one row per country), total count of requests sent, total count of requests sent failed.</t>
+  </si>
+  <si>
+    <t>How to define crowded newsfeed?</t>
+  </si>
+  <si>
+    <t>Typical SQL, Stats, Product questions detailed in other posts.</t>
+  </si>
+  <si>
+    <t>How to join in two data frame in R?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SQL question: left join  2. SQL question about ads4ads  Case study about ads4ads </t>
+  </si>
+  <si>
+    <t>run a query to find out common friends</t>
+  </si>
+  <si>
+    <t>Q: SQL question: given a table do a select that requires a group by.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4289,20 +4318,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C991"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B990" sqref="B990"/>
+    <sheetView tabSelected="1" topLeftCell="A959" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1011" sqref="B1011"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" thickBot="1">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>706</v>
       </c>
@@ -4313,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" thickBot="1">
+    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4324,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
+    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4335,7 +4364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="61" thickBot="1">
+    <row r="4" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4346,7 +4375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" thickBot="1">
+    <row r="5" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4357,7 +4386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" thickBot="1">
+    <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4368,7 +4397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" thickBot="1">
+    <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4379,7 +4408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" thickBot="1">
+    <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4390,7 +4419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" thickBot="1">
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4401,7 +4430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41" thickBot="1">
+    <row r="10" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4412,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41" thickBot="1">
+    <row r="11" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4423,7 +4452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" thickBot="1">
+    <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4434,7 +4463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="61" thickBot="1">
+    <row r="13" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4445,7 +4474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="61" thickBot="1">
+    <row r="14" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4456,7 +4485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" thickBot="1">
+    <row r="15" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4467,7 +4496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" thickBot="1">
+    <row r="16" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4478,7 +4507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="41" thickBot="1">
+    <row r="17" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4489,7 +4518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" thickBot="1">
+    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4500,7 +4529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" thickBot="1">
+    <row r="19" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4511,7 +4540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="41" thickBot="1">
+    <row r="20" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4522,7 +4551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="181" thickBot="1">
+    <row r="21" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4533,7 +4562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" thickBot="1">
+    <row r="22" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4544,7 +4573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="121" thickBot="1">
+    <row r="23" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -4555,7 +4584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" thickBot="1">
+    <row r="24" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4566,7 +4595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="81" thickBot="1">
+    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4577,7 +4606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="81" thickBot="1">
+    <row r="26" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4588,7 +4617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="101" thickBot="1">
+    <row r="27" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4599,7 +4628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="41" thickBot="1">
+    <row r="28" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4610,7 +4639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" thickBot="1">
+    <row r="29" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4621,7 +4650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" thickBot="1">
+    <row r="30" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -4632,7 +4661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" thickBot="1">
+    <row r="31" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -4643,7 +4672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="41" thickBot="1">
+    <row r="32" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -4654,7 +4683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="61" thickBot="1">
+    <row r="33" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4665,7 +4694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="41" thickBot="1">
+    <row r="34" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="41" thickBot="1">
+    <row r="35" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -4687,7 +4716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="41" thickBot="1">
+    <row r="36" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -4698,7 +4727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="41" thickBot="1">
+    <row r="37" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -4709,7 +4738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" thickBot="1">
+    <row r="38" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -4720,7 +4749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="41" thickBot="1">
+    <row r="39" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -4731,7 +4760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="61" thickBot="1">
+    <row r="40" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -4742,7 +4771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="41" thickBot="1">
+    <row r="41" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -4753,7 +4782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" thickBot="1">
+    <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4764,7 +4793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41" thickBot="1">
+    <row r="43" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -4775,7 +4804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" thickBot="1">
+    <row r="44" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -4786,7 +4815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" thickBot="1">
+    <row r="45" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -4797,7 +4826,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="41" thickBot="1">
+    <row r="46" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4808,7 +4837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" thickBot="1">
+    <row r="47" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4819,7 +4848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="41" thickBot="1">
+    <row r="48" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4830,7 +4859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" thickBot="1">
+    <row r="49" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4841,7 +4870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="61" thickBot="1">
+    <row r="50" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4852,7 +4881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" thickBot="1">
+    <row r="51" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -4863,7 +4892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="41" thickBot="1">
+    <row r="52" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4874,7 +4903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="201" thickBot="1">
+    <row r="53" spans="1:3" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -4885,7 +4914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21" thickBot="1">
+    <row r="54" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" thickBot="1">
+    <row r="55" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -4907,7 +4936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="21" thickBot="1">
+    <row r="56" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4918,7 +4947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="41" thickBot="1">
+    <row r="57" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -4929,7 +4958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="61" thickBot="1">
+    <row r="58" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4940,7 +4969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="61" thickBot="1">
+    <row r="59" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4951,7 +4980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" thickBot="1">
+    <row r="60" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4962,7 +4991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="41" thickBot="1">
+    <row r="61" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4973,7 +5002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="141" thickBot="1">
+    <row r="62" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="41" thickBot="1">
+    <row r="63" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4995,7 +5024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" thickBot="1">
+    <row r="64" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -5006,7 +5035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" thickBot="1">
+    <row r="65" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -5017,7 +5046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="41" thickBot="1">
+    <row r="66" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -5028,7 +5057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" thickBot="1">
+    <row r="67" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -5039,7 +5068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" thickBot="1">
+    <row r="68" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -5050,7 +5079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" thickBot="1">
+    <row r="69" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -5061,7 +5090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="41" thickBot="1">
+    <row r="70" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -5072,7 +5101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" thickBot="1">
+    <row r="71" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" thickBot="1">
+    <row r="72" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -5094,7 +5123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="61" thickBot="1">
+    <row r="73" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -5105,7 +5134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" thickBot="1">
+    <row r="74" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -5116,7 +5145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="41" thickBot="1">
+    <row r="75" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -5127,7 +5156,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" thickBot="1">
+    <row r="76" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -5138,7 +5167,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="41" thickBot="1">
+    <row r="77" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -5149,7 +5178,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="41" thickBot="1">
+    <row r="78" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -5160,7 +5189,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" thickBot="1">
+    <row r="79" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -5171,7 +5200,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" thickBot="1">
+    <row r="80" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -5182,7 +5211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" thickBot="1">
+    <row r="81" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -5193,7 +5222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="41" thickBot="1">
+    <row r="82" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -5204,7 +5233,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" thickBot="1">
+    <row r="83" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -5215,7 +5244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="41" thickBot="1">
+    <row r="84" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -5226,7 +5255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="41" thickBot="1">
+    <row r="85" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -5237,7 +5266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="41" thickBot="1">
+    <row r="86" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -5248,7 +5277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="41" thickBot="1">
+    <row r="87" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -5259,7 +5288,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41" thickBot="1">
+    <row r="88" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -5270,7 +5299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" thickBot="1">
+    <row r="89" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -5281,7 +5310,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" thickBot="1">
+    <row r="90" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -5292,7 +5321,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="41" thickBot="1">
+    <row r="91" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -5303,7 +5332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="41" thickBot="1">
+    <row r="92" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -5314,7 +5343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="61" thickBot="1">
+    <row r="93" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -5325,7 +5354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" thickBot="1">
+    <row r="94" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -5336,7 +5365,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" thickBot="1">
+    <row r="95" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -5347,7 +5376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="101" thickBot="1">
+    <row r="96" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -5358,7 +5387,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" thickBot="1">
+    <row r="97" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -5369,7 +5398,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" thickBot="1">
+    <row r="98" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -5380,7 +5409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="21" thickBot="1">
+    <row r="99" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -5391,7 +5420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21" thickBot="1">
+    <row r="100" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -5402,7 +5431,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="21" thickBot="1">
+    <row r="101" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -5413,7 +5442,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21" thickBot="1">
+    <row r="102" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -5424,7 +5453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21" thickBot="1">
+    <row r="103" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -5435,7 +5464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" thickBot="1">
+    <row r="104" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -5446,7 +5475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21" thickBot="1">
+    <row r="105" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -5457,7 +5486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="61" thickBot="1">
+    <row r="106" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -5468,7 +5497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21" thickBot="1">
+    <row r="107" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -5479,7 +5508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21" thickBot="1">
+    <row r="108" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -5490,7 +5519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21" thickBot="1">
+    <row r="109" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -5501,7 +5530,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="141" thickBot="1">
+    <row r="110" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -5512,7 +5541,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21" thickBot="1">
+    <row r="111" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -5523,7 +5552,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21" thickBot="1">
+    <row r="112" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -5534,7 +5563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" thickBot="1">
+    <row r="113" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -5545,7 +5574,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="41" thickBot="1">
+    <row r="114" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="41" thickBot="1">
+    <row r="115" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -5567,7 +5596,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="41" thickBot="1">
+    <row r="116" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -5578,7 +5607,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="61" thickBot="1">
+    <row r="117" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -5589,7 +5618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" thickBot="1">
+    <row r="118" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -5600,7 +5629,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="41" thickBot="1">
+    <row r="119" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -5611,7 +5640,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="81" thickBot="1">
+    <row r="120" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -5622,7 +5651,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" thickBot="1">
+    <row r="121" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -5633,7 +5662,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" thickBot="1">
+    <row r="122" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -5644,7 +5673,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21" thickBot="1">
+    <row r="123" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -5655,7 +5684,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21" thickBot="1">
+    <row r="124" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -5666,7 +5695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21" thickBot="1">
+    <row r="125" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -5677,7 +5706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" thickBot="1">
+    <row r="126" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -5688,7 +5717,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21" thickBot="1">
+    <row r="127" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -5699,7 +5728,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" thickBot="1">
+    <row r="128" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -5710,7 +5739,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21" thickBot="1">
+    <row r="129" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -5721,7 +5750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21" thickBot="1">
+    <row r="130" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -5732,7 +5761,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="61" thickBot="1">
+    <row r="131" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -5743,7 +5772,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="61" thickBot="1">
+    <row r="132" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -5754,7 +5783,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" thickBot="1">
+    <row r="133" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -5765,7 +5794,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" thickBot="1">
+    <row r="134" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -5776,7 +5805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21" thickBot="1">
+    <row r="135" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -5787,7 +5816,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21" thickBot="1">
+    <row r="136" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -5798,7 +5827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="21" thickBot="1">
+    <row r="137" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -5809,7 +5838,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="41" thickBot="1">
+    <row r="138" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -5820,7 +5849,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="21" thickBot="1">
+    <row r="139" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -5831,7 +5860,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="41" thickBot="1">
+    <row r="140" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -5842,7 +5871,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" thickBot="1">
+    <row r="141" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -5853,7 +5882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="41" thickBot="1">
+    <row r="142" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -5864,7 +5893,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="61" thickBot="1">
+    <row r="143" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -5875,7 +5904,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="41" thickBot="1">
+    <row r="144" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -5886,7 +5915,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="81" thickBot="1">
+    <row r="145" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -5897,7 +5926,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" thickBot="1">
+    <row r="146" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -5908,7 +5937,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" thickBot="1">
+    <row r="147" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -5919,7 +5948,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="41" thickBot="1">
+    <row r="148" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -5930,7 +5959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" thickBot="1">
+    <row r="149" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -5941,7 +5970,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="41" thickBot="1">
+    <row r="150" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -5952,7 +5981,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" thickBot="1">
+    <row r="151" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -5963,7 +5992,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" thickBot="1">
+    <row r="152" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -5974,7 +6003,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" thickBot="1">
+    <row r="153" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -5985,7 +6014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" thickBot="1">
+    <row r="154" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -5996,7 +6025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" thickBot="1">
+    <row r="155" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -6007,7 +6036,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" thickBot="1">
+    <row r="156" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -6018,7 +6047,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" thickBot="1">
+    <row r="157" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -6029,7 +6058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="61" thickBot="1">
+    <row r="158" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -6040,7 +6069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" thickBot="1">
+    <row r="159" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -6051,7 +6080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="61" thickBot="1">
+    <row r="160" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -6062,7 +6091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="41" thickBot="1">
+    <row r="161" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -6073,7 +6102,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" thickBot="1">
+    <row r="162" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -6084,7 +6113,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" thickBot="1">
+    <row r="163" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -6095,7 +6124,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" thickBot="1">
+    <row r="164" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -6106,7 +6135,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" thickBot="1">
+    <row r="165" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -6117,7 +6146,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="61" thickBot="1">
+    <row r="166" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -6128,7 +6157,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" thickBot="1">
+    <row r="167" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -6139,7 +6168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" thickBot="1">
+    <row r="168" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -6150,7 +6179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="41" thickBot="1">
+    <row r="169" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -6161,7 +6190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" thickBot="1">
+    <row r="170" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -6172,7 +6201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="41" thickBot="1">
+    <row r="171" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -6183,7 +6212,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" thickBot="1">
+    <row r="172" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -6194,7 +6223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" thickBot="1">
+    <row r="173" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -6205,7 +6234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" thickBot="1">
+    <row r="174" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -6216,7 +6245,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="41" thickBot="1">
+    <row r="175" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -6227,7 +6256,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21" thickBot="1">
+    <row r="176" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -6238,7 +6267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="41" thickBot="1">
+    <row r="177" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -6249,7 +6278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21" thickBot="1">
+    <row r="178" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -6260,7 +6289,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21" thickBot="1">
+    <row r="179" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -6271,7 +6300,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21" thickBot="1">
+    <row r="180" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -6282,7 +6311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="41" thickBot="1">
+    <row r="181" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -6293,7 +6322,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="241" thickBot="1">
+    <row r="182" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -6304,7 +6333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="61" thickBot="1">
+    <row r="183" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -6315,7 +6344,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="41" thickBot="1">
+    <row r="184" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -6326,7 +6355,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21" thickBot="1">
+    <row r="185" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>184</v>
       </c>
@@ -6337,7 +6366,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="41" thickBot="1">
+    <row r="186" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11">
         <v>185</v>
       </c>
@@ -6348,7 +6377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21" thickBot="1">
+    <row r="187" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>186</v>
       </c>
@@ -6359,7 +6388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="41" thickBot="1">
+    <row r="188" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>187</v>
       </c>
@@ -6370,7 +6399,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21" thickBot="1">
+    <row r="189" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>188</v>
       </c>
@@ -6381,7 +6410,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="41" thickBot="1">
+    <row r="190" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>189</v>
       </c>
@@ -6392,7 +6421,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="41" thickBot="1">
+    <row r="191" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>190</v>
       </c>
@@ -6403,7 +6432,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="61" thickBot="1">
+    <row r="192" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>191</v>
       </c>
@@ -6414,7 +6443,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="41" thickBot="1">
+    <row r="193" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>192</v>
       </c>
@@ -6425,7 +6454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="41" thickBot="1">
+    <row r="194" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>193</v>
       </c>
@@ -6436,7 +6465,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="41" thickBot="1">
+    <row r="195" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>194</v>
       </c>
@@ -6447,7 +6476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="181" thickBot="1">
+    <row r="196" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>195</v>
       </c>
@@ -6458,7 +6487,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="41" thickBot="1">
+    <row r="197" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>196</v>
       </c>
@@ -6469,7 +6498,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="41" thickBot="1">
+    <row r="198" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>197</v>
       </c>
@@ -6480,7 +6509,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21" thickBot="1">
+    <row r="199" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>198</v>
       </c>
@@ -6491,7 +6520,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21" thickBot="1">
+    <row r="200" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>199</v>
       </c>
@@ -6502,7 +6531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="61" thickBot="1">
+    <row r="201" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>200</v>
       </c>
@@ -6513,7 +6542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21" thickBot="1">
+    <row r="202" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>201</v>
       </c>
@@ -6524,7 +6553,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21" thickBot="1">
+    <row r="203" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>202</v>
       </c>
@@ -6535,7 +6564,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="61" thickBot="1">
+    <row r="204" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>203</v>
       </c>
@@ -6546,7 +6575,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="221" thickBot="1">
+    <row r="205" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>204</v>
       </c>
@@ -6557,7 +6586,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21" thickBot="1">
+    <row r="206" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>205</v>
       </c>
@@ -6568,7 +6597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" thickBot="1">
+    <row r="207" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>206</v>
       </c>
@@ -6579,7 +6608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="61" thickBot="1">
+    <row r="208" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>207</v>
       </c>
@@ -6590,7 +6619,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21" thickBot="1">
+    <row r="209" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>208</v>
       </c>
@@ -6601,7 +6630,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21" thickBot="1">
+    <row r="210" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>209</v>
       </c>
@@ -6612,7 +6641,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21" thickBot="1">
+    <row r="211" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>210</v>
       </c>
@@ -6623,7 +6652,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="61" thickBot="1">
+    <row r="212" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
         <v>211</v>
       </c>
@@ -6634,7 +6663,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="41" thickBot="1">
+    <row r="213" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>212</v>
       </c>
@@ -6645,7 +6674,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="81" thickBot="1">
+    <row r="214" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
         <v>213</v>
       </c>
@@ -6656,7 +6685,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="41" thickBot="1">
+    <row r="215" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>214</v>
       </c>
@@ -6667,7 +6696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="61" thickBot="1">
+    <row r="216" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
         <v>215</v>
       </c>
@@ -6678,7 +6707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" thickBot="1">
+    <row r="217" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
         <v>216</v>
       </c>
@@ -6689,7 +6718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" thickBot="1">
+    <row r="218" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
         <v>217</v>
       </c>
@@ -6700,7 +6729,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" thickBot="1">
+    <row r="219" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
         <v>218</v>
       </c>
@@ -6711,7 +6740,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" thickBot="1">
+    <row r="220" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
         <v>219</v>
       </c>
@@ -6722,7 +6751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="61" thickBot="1">
+    <row r="221" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
         <v>220</v>
       </c>
@@ -6733,7 +6762,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" thickBot="1">
+    <row r="222" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
         <v>221</v>
       </c>
@@ -6744,7 +6773,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="41" thickBot="1">
+    <row r="223" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
         <v>222</v>
       </c>
@@ -6755,7 +6784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="61" thickBot="1">
+    <row r="224" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
         <v>223</v>
       </c>
@@ -6766,7 +6795,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="41" thickBot="1">
+    <row r="225" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
         <v>224</v>
       </c>
@@ -6777,7 +6806,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="101" thickBot="1">
+    <row r="226" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
         <v>225</v>
       </c>
@@ -6788,7 +6817,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="41" thickBot="1">
+    <row r="227" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
         <v>226</v>
       </c>
@@ -6799,7 +6828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21" thickBot="1">
+    <row r="228" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
         <v>227</v>
       </c>
@@ -6810,7 +6839,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21" thickBot="1">
+    <row r="229" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
         <v>228</v>
       </c>
@@ -6821,7 +6850,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" thickBot="1">
+    <row r="230" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
         <v>229</v>
       </c>
@@ -6832,7 +6861,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" thickBot="1">
+    <row r="231" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
         <v>230</v>
       </c>
@@ -6843,7 +6872,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21" thickBot="1">
+    <row r="232" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
         <v>231</v>
       </c>
@@ -6854,7 +6883,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21" thickBot="1">
+    <row r="233" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
         <v>232</v>
       </c>
@@ -6865,7 +6894,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="41" thickBot="1">
+    <row r="234" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
         <v>233</v>
       </c>
@@ -6876,7 +6905,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="41" thickBot="1">
+    <row r="235" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
         <v>234</v>
       </c>
@@ -6887,7 +6916,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="41" thickBot="1">
+    <row r="236" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
         <v>235</v>
       </c>
@@ -6898,7 +6927,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="21" thickBot="1">
+    <row r="237" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
         <v>236</v>
       </c>
@@ -6909,7 +6938,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="41" thickBot="1">
+    <row r="238" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
         <v>237</v>
       </c>
@@ -6920,7 +6949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="81" thickBot="1">
+    <row r="239" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
         <v>238</v>
       </c>
@@ -6931,7 +6960,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="41" thickBot="1">
+    <row r="240" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
         <v>239</v>
       </c>
@@ -6942,7 +6971,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" thickBot="1">
+    <row r="241" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
         <v>240</v>
       </c>
@@ -6953,7 +6982,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="61" thickBot="1">
+    <row r="242" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
         <v>241</v>
       </c>
@@ -6964,7 +6993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" thickBot="1">
+    <row r="243" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
         <v>242</v>
       </c>
@@ -6975,7 +7004,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="41" thickBot="1">
+    <row r="244" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
         <v>243</v>
       </c>
@@ -6986,7 +7015,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" thickBot="1">
+    <row r="245" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
         <v>244</v>
       </c>
@@ -6997,7 +7026,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" thickBot="1">
+    <row r="246" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
         <v>245</v>
       </c>
@@ -7008,7 +7037,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" thickBot="1">
+    <row r="247" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
         <v>246</v>
       </c>
@@ -7019,7 +7048,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" thickBot="1">
+    <row r="248" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
         <v>247</v>
       </c>
@@ -7030,7 +7059,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="81" thickBot="1">
+    <row r="249" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
         <v>248</v>
       </c>
@@ -7041,7 +7070,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" thickBot="1">
+    <row r="250" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
         <v>249</v>
       </c>
@@ -7052,7 +7081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="41" thickBot="1">
+    <row r="251" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
         <v>250</v>
       </c>
@@ -7063,7 +7092,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" thickBot="1">
+    <row r="252" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
         <v>251</v>
       </c>
@@ -7074,7 +7103,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" thickBot="1">
+    <row r="253" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="11">
         <v>252</v>
       </c>
@@ -7085,7 +7114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" thickBot="1">
+    <row r="254" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="11">
         <v>253</v>
       </c>
@@ -7096,7 +7125,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" thickBot="1">
+    <row r="255" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
         <v>254</v>
       </c>
@@ -7107,7 +7136,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" thickBot="1">
+    <row r="256" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
         <v>255</v>
       </c>
@@ -7118,7 +7147,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="41" thickBot="1">
+    <row r="257" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
         <v>256</v>
       </c>
@@ -7129,7 +7158,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" thickBot="1">
+    <row r="258" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11">
         <v>257</v>
       </c>
@@ -7140,7 +7169,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="61" thickBot="1">
+    <row r="259" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
         <v>258</v>
       </c>
@@ -7151,7 +7180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" thickBot="1">
+    <row r="260" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
         <v>259</v>
       </c>
@@ -7162,7 +7191,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="41" thickBot="1">
+    <row r="261" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="11">
         <v>260</v>
       </c>
@@ -7173,7 +7202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" thickBot="1">
+    <row r="262" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="11">
         <v>261</v>
       </c>
@@ -7184,7 +7213,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" thickBot="1">
+    <row r="263" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
         <v>262</v>
       </c>
@@ -7195,7 +7224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" thickBot="1">
+    <row r="264" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="11">
         <v>263</v>
       </c>
@@ -7206,7 +7235,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="41" thickBot="1">
+    <row r="265" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
         <v>264</v>
       </c>
@@ -7217,7 +7246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" thickBot="1">
+    <row r="266" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11">
         <v>265</v>
       </c>
@@ -7228,7 +7257,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="121" thickBot="1">
+    <row r="267" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="11">
         <v>266</v>
       </c>
@@ -7239,7 +7268,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" thickBot="1">
+    <row r="268" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="11">
         <v>267</v>
       </c>
@@ -7250,7 +7279,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" thickBot="1">
+    <row r="269" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11">
         <v>268</v>
       </c>
@@ -7261,7 +7290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" thickBot="1">
+    <row r="270" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="11">
         <v>269</v>
       </c>
@@ -7272,7 +7301,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" thickBot="1">
+    <row r="271" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="11">
         <v>270</v>
       </c>
@@ -7283,7 +7312,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" thickBot="1">
+    <row r="272" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="11">
         <v>271</v>
       </c>
@@ -7294,7 +7323,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" thickBot="1">
+    <row r="273" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="11">
         <v>272</v>
       </c>
@@ -7305,7 +7334,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="41" thickBot="1">
+    <row r="274" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="11">
         <v>273</v>
       </c>
@@ -7316,7 +7345,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="21" thickBot="1">
+    <row r="275" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="11">
         <v>274</v>
       </c>
@@ -7327,7 +7356,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="41" thickBot="1">
+    <row r="276" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="11">
         <v>275</v>
       </c>
@@ -7338,7 +7367,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="41" thickBot="1">
+    <row r="277" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="11">
         <v>276</v>
       </c>
@@ -7349,7 +7378,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="81" thickBot="1">
+    <row r="278" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="11">
         <v>277</v>
       </c>
@@ -7360,7 +7389,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21" thickBot="1">
+    <row r="279" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="11">
         <v>278</v>
       </c>
@@ -7371,7 +7400,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21" thickBot="1">
+    <row r="280" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="11">
         <v>279</v>
       </c>
@@ -7382,7 +7411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="41" thickBot="1">
+    <row r="281" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="11">
         <v>280</v>
       </c>
@@ -7393,7 +7422,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="81" thickBot="1">
+    <row r="282" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="11">
         <v>281</v>
       </c>
@@ -7404,7 +7433,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21" thickBot="1">
+    <row r="283" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="11">
         <v>282</v>
       </c>
@@ -7415,7 +7444,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="41" thickBot="1">
+    <row r="284" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="11">
         <v>283</v>
       </c>
@@ -7426,7 +7455,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="41" thickBot="1">
+    <row r="285" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="11">
         <v>284</v>
       </c>
@@ -7437,7 +7466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="61" thickBot="1">
+    <row r="286" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="11">
         <v>285</v>
       </c>
@@ -7448,7 +7477,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21" thickBot="1">
+    <row r="287" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="11">
         <v>286</v>
       </c>
@@ -7459,7 +7488,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21" thickBot="1">
+    <row r="288" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="11">
         <v>287</v>
       </c>
@@ -7470,7 +7499,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21" thickBot="1">
+    <row r="289" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -7481,7 +7510,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="41" thickBot="1">
+    <row r="290" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -7492,7 +7521,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21" thickBot="1">
+    <row r="291" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="11">
         <v>290</v>
       </c>
@@ -7503,7 +7532,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="41" thickBot="1">
+    <row r="292" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="11">
         <v>291</v>
       </c>
@@ -7514,7 +7543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="81" thickBot="1">
+    <row r="293" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="11">
         <v>292</v>
       </c>
@@ -7525,7 +7554,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="61" thickBot="1">
+    <row r="294" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="11">
         <v>293</v>
       </c>
@@ -7536,7 +7565,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="21" thickBot="1">
+    <row r="295" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="11">
         <v>294</v>
       </c>
@@ -7547,7 +7576,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="41" thickBot="1">
+    <row r="296" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11">
         <v>295</v>
       </c>
@@ -7558,7 +7587,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="41" thickBot="1">
+    <row r="297" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="11">
         <v>296</v>
       </c>
@@ -7569,7 +7598,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21" thickBot="1">
+    <row r="298" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="11">
         <v>297</v>
       </c>
@@ -7580,7 +7609,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" thickBot="1">
+    <row r="299" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="11">
         <v>298</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21" thickBot="1">
+    <row r="300" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="11">
         <v>299</v>
       </c>
@@ -7602,7 +7631,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="41" thickBot="1">
+    <row r="301" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="11">
         <v>300</v>
       </c>
@@ -7613,7 +7642,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="41" thickBot="1">
+    <row r="302" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="11">
         <v>301</v>
       </c>
@@ -7624,7 +7653,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="41" thickBot="1">
+    <row r="303" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="11">
         <v>302</v>
       </c>
@@ -7635,7 +7664,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21" thickBot="1">
+    <row r="304" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="11">
         <v>303</v>
       </c>
@@ -7646,7 +7675,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="41" thickBot="1">
+    <row r="305" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="11">
         <v>304</v>
       </c>
@@ -7657,7 +7686,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21" thickBot="1">
+    <row r="306" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="11">
         <v>305</v>
       </c>
@@ -7668,7 +7697,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" thickBot="1">
+    <row r="307" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="11">
         <v>306</v>
       </c>
@@ -7679,7 +7708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="61" thickBot="1">
+    <row r="308" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="11">
         <v>307</v>
       </c>
@@ -7690,7 +7719,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21" thickBot="1">
+    <row r="309" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="11">
         <v>308</v>
       </c>
@@ -7701,7 +7730,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" thickBot="1">
+    <row r="310" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="11">
         <v>309</v>
       </c>
@@ -7712,7 +7741,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21" thickBot="1">
+    <row r="311" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="11">
         <v>310</v>
       </c>
@@ -7723,7 +7752,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21" thickBot="1">
+    <row r="312" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="11">
         <v>311</v>
       </c>
@@ -7734,7 +7763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21" thickBot="1">
+    <row r="313" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="11">
         <v>312</v>
       </c>
@@ -7745,7 +7774,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21" thickBot="1">
+    <row r="314" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="11">
         <v>313</v>
       </c>
@@ -7756,7 +7785,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="41" thickBot="1">
+    <row r="315" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="11">
         <v>314</v>
       </c>
@@ -7767,7 +7796,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="61" thickBot="1">
+    <row r="316" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="11">
         <v>315</v>
       </c>
@@ -7778,7 +7807,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="41" thickBot="1">
+    <row r="317" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="11">
         <v>316</v>
       </c>
@@ -7789,7 +7818,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="61" thickBot="1">
+    <row r="318" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="11">
         <v>317</v>
       </c>
@@ -7800,7 +7829,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="41" thickBot="1">
+    <row r="319" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="11">
         <v>318</v>
       </c>
@@ -7811,7 +7840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21" thickBot="1">
+    <row r="320" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="11">
         <v>319</v>
       </c>
@@ -7822,7 +7851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="41" thickBot="1">
+    <row r="321" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="11">
         <v>320</v>
       </c>
@@ -7833,7 +7862,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="41" thickBot="1">
+    <row r="322" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="11">
         <v>321</v>
       </c>
@@ -7844,7 +7873,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="41" thickBot="1">
+    <row r="323" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="11">
         <v>322</v>
       </c>
@@ -7855,7 +7884,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21" thickBot="1">
+    <row r="324" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="11">
         <v>323</v>
       </c>
@@ -7866,7 +7895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="41" thickBot="1">
+    <row r="325" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="11">
         <v>324</v>
       </c>
@@ -7877,7 +7906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="121" thickBot="1">
+    <row r="326" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="11">
         <v>325</v>
       </c>
@@ -7888,7 +7917,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="61" thickBot="1">
+    <row r="327" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="11">
         <v>326</v>
       </c>
@@ -7899,7 +7928,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="61" thickBot="1">
+    <row r="328" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="11">
         <v>327</v>
       </c>
@@ -7910,7 +7939,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" thickBot="1">
+    <row r="329" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="11">
         <v>328</v>
       </c>
@@ -7921,7 +7950,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="41" thickBot="1">
+    <row r="330" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="11">
         <v>329</v>
       </c>
@@ -7932,7 +7961,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21" thickBot="1">
+    <row r="331" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="11">
         <v>330</v>
       </c>
@@ -7943,7 +7972,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21" thickBot="1">
+    <row r="332" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="11">
         <v>331</v>
       </c>
@@ -7954,7 +7983,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="41" thickBot="1">
+    <row r="333" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="11">
         <v>332</v>
       </c>
@@ -7965,7 +7994,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21" thickBot="1">
+    <row r="334" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="11">
         <v>333</v>
       </c>
@@ -7976,7 +8005,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="81" thickBot="1">
+    <row r="335" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="11">
         <v>334</v>
       </c>
@@ -7987,7 +8016,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="41" thickBot="1">
+    <row r="336" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="11">
         <v>335</v>
       </c>
@@ -7998,7 +8027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="41" thickBot="1">
+    <row r="337" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="11">
         <v>336</v>
       </c>
@@ -8009,7 +8038,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="41" thickBot="1">
+    <row r="338" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="11">
         <v>337</v>
       </c>
@@ -8020,7 +8049,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21" thickBot="1">
+    <row r="339" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="11">
         <v>338</v>
       </c>
@@ -8031,7 +8060,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21" thickBot="1">
+    <row r="340" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="11">
         <v>339</v>
       </c>
@@ -8042,7 +8071,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21" thickBot="1">
+    <row r="341" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="11">
         <v>340</v>
       </c>
@@ -8053,7 +8082,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="41" thickBot="1">
+    <row r="342" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="11">
         <v>341</v>
       </c>
@@ -8064,7 +8093,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21" thickBot="1">
+    <row r="343" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="11">
         <v>342</v>
       </c>
@@ -8075,7 +8104,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="61" thickBot="1">
+    <row r="344" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="11">
         <v>343</v>
       </c>
@@ -8086,7 +8115,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="41" thickBot="1">
+    <row r="345" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="11">
         <v>344</v>
       </c>
@@ -8097,7 +8126,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21" thickBot="1">
+    <row r="346" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="11">
         <v>345</v>
       </c>
@@ -8108,7 +8137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="41" thickBot="1">
+    <row r="347" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="11">
         <v>346</v>
       </c>
@@ -8119,7 +8148,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21" thickBot="1">
+    <row r="348" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="11">
         <v>347</v>
       </c>
@@ -8130,7 +8159,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="41" thickBot="1">
+    <row r="349" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="11">
         <v>348</v>
       </c>
@@ -8141,7 +8170,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21" thickBot="1">
+    <row r="350" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="11">
         <v>349</v>
       </c>
@@ -8152,7 +8181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="41" thickBot="1">
+    <row r="351" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="11">
         <v>350</v>
       </c>
@@ -8163,7 +8192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="41" thickBot="1">
+    <row r="352" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="11">
         <v>351</v>
       </c>
@@ -8174,7 +8203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21" thickBot="1">
+    <row r="353" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="11">
         <v>352</v>
       </c>
@@ -8185,7 +8214,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" thickBot="1">
+    <row r="354" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="11">
         <v>353</v>
       </c>
@@ -8196,7 +8225,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="21" thickBot="1">
+    <row r="355" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="11">
         <v>354</v>
       </c>
@@ -8207,7 +8236,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="21" thickBot="1">
+    <row r="356" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="11">
         <v>355</v>
       </c>
@@ -8218,7 +8247,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21" thickBot="1">
+    <row r="357" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="11">
         <v>356</v>
       </c>
@@ -8229,7 +8258,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="41" thickBot="1">
+    <row r="358" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="11">
         <v>357</v>
       </c>
@@ -8240,7 +8269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="201" thickBot="1">
+    <row r="359" spans="1:3" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="11">
         <v>358</v>
       </c>
@@ -8251,7 +8280,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" thickBot="1">
+    <row r="360" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="11">
         <v>359</v>
       </c>
@@ -8262,7 +8291,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" thickBot="1">
+    <row r="361" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="11">
         <v>360</v>
       </c>
@@ -8273,7 +8302,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" thickBot="1">
+    <row r="362" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="11">
         <v>361</v>
       </c>
@@ -8284,7 +8313,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="81" thickBot="1">
+    <row r="363" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="11">
         <v>362</v>
       </c>
@@ -8295,7 +8324,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" thickBot="1">
+    <row r="364" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="11">
         <v>363</v>
       </c>
@@ -8306,7 +8335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" thickBot="1">
+    <row r="365" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="11">
         <v>364</v>
       </c>
@@ -8317,7 +8346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" thickBot="1">
+    <row r="366" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="11">
         <v>365</v>
       </c>
@@ -8328,7 +8357,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="41" thickBot="1">
+    <row r="367" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="11">
         <v>366</v>
       </c>
@@ -8339,7 +8368,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="41" thickBot="1">
+    <row r="368" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="11">
         <v>367</v>
       </c>
@@ -8350,7 +8379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="41" thickBot="1">
+    <row r="369" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="11">
         <v>368</v>
       </c>
@@ -8361,7 +8390,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="61" thickBot="1">
+    <row r="370" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="11">
         <v>369</v>
       </c>
@@ -8372,7 +8401,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" thickBot="1">
+    <row r="371" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="11">
         <v>370</v>
       </c>
@@ -8383,7 +8412,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" thickBot="1">
+    <row r="372" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="11">
         <v>371</v>
       </c>
@@ -8394,7 +8423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="141" thickBot="1">
+    <row r="373" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="11">
         <v>372</v>
       </c>
@@ -8405,7 +8434,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" thickBot="1">
+    <row r="374" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="11">
         <v>373</v>
       </c>
@@ -8416,7 +8445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" thickBot="1">
+    <row r="375" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="11">
         <v>374</v>
       </c>
@@ -8427,7 +8456,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="61" thickBot="1">
+    <row r="376" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="11">
         <v>375</v>
       </c>
@@ -8438,7 +8467,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" thickBot="1">
+    <row r="377" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="11">
         <v>376</v>
       </c>
@@ -8449,7 +8478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" thickBot="1">
+    <row r="378" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="11">
         <v>377</v>
       </c>
@@ -8460,7 +8489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" thickBot="1">
+    <row r="379" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="11">
         <v>378</v>
       </c>
@@ -8471,7 +8500,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="41" thickBot="1">
+    <row r="380" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="11">
         <v>379</v>
       </c>
@@ -8482,7 +8511,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" thickBot="1">
+    <row r="381" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="11">
         <v>380</v>
       </c>
@@ -8493,7 +8522,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="41" thickBot="1">
+    <row r="382" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="11">
         <v>381</v>
       </c>
@@ -8504,7 +8533,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="41" thickBot="1">
+    <row r="383" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="11">
         <v>382</v>
       </c>
@@ -8515,7 +8544,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="61" thickBot="1">
+    <row r="384" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="11">
         <v>383</v>
       </c>
@@ -8526,7 +8555,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" thickBot="1">
+    <row r="385" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="11">
         <v>384</v>
       </c>
@@ -8537,7 +8566,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="41" thickBot="1">
+    <row r="386" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="11">
         <v>385</v>
       </c>
@@ -8548,7 +8577,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" thickBot="1">
+    <row r="387" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="11">
         <v>386</v>
       </c>
@@ -8559,7 +8588,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" thickBot="1">
+    <row r="388" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="11">
         <v>387</v>
       </c>
@@ -8570,7 +8599,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" thickBot="1">
+    <row r="389" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="11">
         <v>388</v>
       </c>
@@ -8581,7 +8610,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" thickBot="1">
+    <row r="390" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="11">
         <v>389</v>
       </c>
@@ -8592,7 +8621,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" thickBot="1">
+    <row r="391" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="11">
         <v>390</v>
       </c>
@@ -8603,7 +8632,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" thickBot="1">
+    <row r="392" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="11">
         <v>391</v>
       </c>
@@ -8614,7 +8643,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="41" thickBot="1">
+    <row r="393" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="11">
         <v>392</v>
       </c>
@@ -8625,7 +8654,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="41" thickBot="1">
+    <row r="394" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="11">
         <v>393</v>
       </c>
@@ -8636,7 +8665,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="41" thickBot="1">
+    <row r="395" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="11">
         <v>394</v>
       </c>
@@ -8647,7 +8676,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="61" thickBot="1">
+    <row r="396" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="11">
         <v>395</v>
       </c>
@@ -8658,7 +8687,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" thickBot="1">
+    <row r="397" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="11">
         <v>396</v>
       </c>
@@ -8669,7 +8698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="41" thickBot="1">
+    <row r="398" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="11">
         <v>397</v>
       </c>
@@ -8680,7 +8709,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="41" thickBot="1">
+    <row r="399" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="11">
         <v>398</v>
       </c>
@@ -8691,7 +8720,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="41" thickBot="1">
+    <row r="400" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="11">
         <v>399</v>
       </c>
@@ -8702,7 +8731,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="21" thickBot="1">
+    <row r="401" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="11">
         <v>400</v>
       </c>
@@ -8713,7 +8742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="41" thickBot="1">
+    <row r="402" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="11">
         <v>401</v>
       </c>
@@ -8724,7 +8753,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21" thickBot="1">
+    <row r="403" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="11">
         <v>402</v>
       </c>
@@ -8735,7 +8764,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21" thickBot="1">
+    <row r="404" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="11">
         <v>403</v>
       </c>
@@ -8746,7 +8775,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21" thickBot="1">
+    <row r="405" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="11">
         <v>404</v>
       </c>
@@ -8757,7 +8786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="41" thickBot="1">
+    <row r="406" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="11">
         <v>405</v>
       </c>
@@ -8768,7 +8797,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21" thickBot="1">
+    <row r="407" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="11">
         <v>406</v>
       </c>
@@ -8779,7 +8808,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21" thickBot="1">
+    <row r="408" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="11">
         <v>407</v>
       </c>
@@ -8790,7 +8819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="21" thickBot="1">
+    <row r="409" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="11">
         <v>408</v>
       </c>
@@ -8801,7 +8830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="21" thickBot="1">
+    <row r="410" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="11">
         <v>409</v>
       </c>
@@ -8812,7 +8841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="61" thickBot="1">
+    <row r="411" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="11">
         <v>410</v>
       </c>
@@ -8823,7 +8852,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="61" thickBot="1">
+    <row r="412" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="11">
         <v>411</v>
       </c>
@@ -8834,7 +8863,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="41" thickBot="1">
+    <row r="413" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="11">
         <v>412</v>
       </c>
@@ -8845,7 +8874,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="41" thickBot="1">
+    <row r="414" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="11">
         <v>413</v>
       </c>
@@ -8856,7 +8885,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" thickBot="1">
+    <row r="415" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="11">
         <v>414</v>
       </c>
@@ -8867,7 +8896,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" thickBot="1">
+    <row r="416" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="11">
         <v>415</v>
       </c>
@@ -8878,7 +8907,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" thickBot="1">
+    <row r="417" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="11">
         <v>416</v>
       </c>
@@ -8889,7 +8918,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="41" thickBot="1">
+    <row r="418" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="11">
         <v>417</v>
       </c>
@@ -8900,7 +8929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" thickBot="1">
+    <row r="419" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="11">
         <v>418</v>
       </c>
@@ -8911,7 +8940,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="61" thickBot="1">
+    <row r="420" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="11">
         <v>419</v>
       </c>
@@ -8922,7 +8951,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="121" thickBot="1">
+    <row r="421" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="11">
         <v>420</v>
       </c>
@@ -8933,7 +8962,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" thickBot="1">
+    <row r="422" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="11">
         <v>421</v>
       </c>
@@ -8944,7 +8973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="41" thickBot="1">
+    <row r="423" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="11">
         <v>422</v>
       </c>
@@ -8955,7 +8984,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="41" thickBot="1">
+    <row r="424" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="11">
         <v>423</v>
       </c>
@@ -8966,7 +8995,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="61" thickBot="1">
+    <row r="425" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="11">
         <v>424</v>
       </c>
@@ -8977,7 +9006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="41" thickBot="1">
+    <row r="426" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="11">
         <v>425</v>
       </c>
@@ -8988,7 +9017,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" thickBot="1">
+    <row r="427" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="11">
         <v>426</v>
       </c>
@@ -8999,7 +9028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" thickBot="1">
+    <row r="428" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="11">
         <v>427</v>
       </c>
@@ -9010,7 +9039,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" thickBot="1">
+    <row r="429" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="11">
         <v>428</v>
       </c>
@@ -9021,7 +9050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" thickBot="1">
+    <row r="430" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="11">
         <v>429</v>
       </c>
@@ -9032,7 +9061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" thickBot="1">
+    <row r="431" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="11">
         <v>430</v>
       </c>
@@ -9043,7 +9072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" thickBot="1">
+    <row r="432" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="11">
         <v>431</v>
       </c>
@@ -9054,7 +9083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" thickBot="1">
+    <row r="433" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="11">
         <v>432</v>
       </c>
@@ -9065,7 +9094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" thickBot="1">
+    <row r="434" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="11">
         <v>433</v>
       </c>
@@ -9076,7 +9105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" thickBot="1">
+    <row r="435" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="11">
         <v>434</v>
       </c>
@@ -9087,7 +9116,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="61" thickBot="1">
+    <row r="436" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="11">
         <v>435</v>
       </c>
@@ -9098,7 +9127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="61" thickBot="1">
+    <row r="437" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="11">
         <v>436</v>
       </c>
@@ -9109,7 +9138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="41" thickBot="1">
+    <row r="438" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="11">
         <v>437</v>
       </c>
@@ -9120,7 +9149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" thickBot="1">
+    <row r="439" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="11">
         <v>438</v>
       </c>
@@ -9131,7 +9160,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="41" thickBot="1">
+    <row r="440" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="11">
         <v>439</v>
       </c>
@@ -9142,7 +9171,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="161" thickBot="1">
+    <row r="441" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="11">
         <v>440</v>
       </c>
@@ -9153,7 +9182,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" thickBot="1">
+    <row r="442" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="11">
         <v>441</v>
       </c>
@@ -9164,7 +9193,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="41" thickBot="1">
+    <row r="443" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="11">
         <v>442</v>
       </c>
@@ -9175,7 +9204,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" thickBot="1">
+    <row r="444" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="11">
         <v>443</v>
       </c>
@@ -9186,7 +9215,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" thickBot="1">
+    <row r="445" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="11">
         <v>444</v>
       </c>
@@ -9197,7 +9226,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="61" thickBot="1">
+    <row r="446" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="11">
         <v>445</v>
       </c>
@@ -9208,7 +9237,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="41" thickBot="1">
+    <row r="447" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="11">
         <v>446</v>
       </c>
@@ -9219,7 +9248,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" thickBot="1">
+    <row r="448" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="11">
         <v>447</v>
       </c>
@@ -9230,7 +9259,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" thickBot="1">
+    <row r="449" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="11">
         <v>448</v>
       </c>
@@ -9241,7 +9270,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" thickBot="1">
+    <row r="450" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="11">
         <v>449</v>
       </c>
@@ -9252,7 +9281,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" thickBot="1">
+    <row r="451" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="11">
         <v>450</v>
       </c>
@@ -9263,7 +9292,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="41" thickBot="1">
+    <row r="452" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="11">
         <v>451</v>
       </c>
@@ -9274,7 +9303,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" thickBot="1">
+    <row r="453" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="11">
         <v>452</v>
       </c>
@@ -9285,7 +9314,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="141" thickBot="1">
+    <row r="454" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="11">
         <v>453</v>
       </c>
@@ -9296,7 +9325,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="81" thickBot="1">
+    <row r="455" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="11">
         <v>454</v>
       </c>
@@ -9307,7 +9336,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" thickBot="1">
+    <row r="456" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="11">
         <v>455</v>
       </c>
@@ -9318,7 +9347,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="61" thickBot="1">
+    <row r="457" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="11">
         <v>456</v>
       </c>
@@ -9329,7 +9358,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" thickBot="1">
+    <row r="458" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="11">
         <v>457</v>
       </c>
@@ -9340,7 +9369,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="61" thickBot="1">
+    <row r="459" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="11">
         <v>458</v>
       </c>
@@ -9351,7 +9380,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="61" thickBot="1">
+    <row r="460" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="11">
         <v>459</v>
       </c>
@@ -9362,7 +9391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" thickBot="1">
+    <row r="461" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="11">
         <v>460</v>
       </c>
@@ -9373,7 +9402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="61" thickBot="1">
+    <row r="462" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="11">
         <v>461</v>
       </c>
@@ -9384,7 +9413,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="101" thickBot="1">
+    <row r="463" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="11">
         <v>462</v>
       </c>
@@ -9395,7 +9424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" thickBot="1">
+    <row r="464" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="11">
         <v>463</v>
       </c>
@@ -9406,7 +9435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="41" thickBot="1">
+    <row r="465" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="11">
         <v>464</v>
       </c>
@@ -9417,7 +9446,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="61" thickBot="1">
+    <row r="466" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="11">
         <v>465</v>
       </c>
@@ -9428,7 +9457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" thickBot="1">
+    <row r="467" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="11">
         <v>466</v>
       </c>
@@ -9439,7 +9468,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" thickBot="1">
+    <row r="468" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="11">
         <v>467</v>
       </c>
@@ -9450,7 +9479,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" thickBot="1">
+    <row r="469" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="11">
         <v>468</v>
       </c>
@@ -9461,7 +9490,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" thickBot="1">
+    <row r="470" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="11">
         <v>469</v>
       </c>
@@ -9472,7 +9501,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21" thickBot="1">
+    <row r="471" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="11">
         <v>470</v>
       </c>
@@ -9483,7 +9512,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="41" thickBot="1">
+    <row r="472" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="11">
         <v>471</v>
       </c>
@@ -9494,7 +9523,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21" thickBot="1">
+    <row r="473" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="11">
         <v>472</v>
       </c>
@@ -9505,7 +9534,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="41" thickBot="1">
+    <row r="474" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="11">
         <v>473</v>
       </c>
@@ -9516,7 +9545,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="81" thickBot="1">
+    <row r="475" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="11">
         <v>474</v>
       </c>
@@ -9527,7 +9556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21" thickBot="1">
+    <row r="476" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="11">
         <v>475</v>
       </c>
@@ -9538,7 +9567,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21" thickBot="1">
+    <row r="477" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="11">
         <v>476</v>
       </c>
@@ -9549,7 +9578,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="41" thickBot="1">
+    <row r="478" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="11">
         <v>477</v>
       </c>
@@ -9560,7 +9589,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="41" thickBot="1">
+    <row r="479" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="11">
         <v>478</v>
       </c>
@@ -9571,7 +9600,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="41" thickBot="1">
+    <row r="480" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="11">
         <v>479</v>
       </c>
@@ -9582,7 +9611,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="47.25" customHeight="1" thickBot="1">
+    <row r="481" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="11">
         <v>480</v>
       </c>
@@ -9593,7 +9622,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="21" thickBot="1">
+    <row r="482" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="11">
         <v>481</v>
       </c>
@@ -9604,7 +9633,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="21" thickBot="1">
+    <row r="483" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="11">
         <v>482</v>
       </c>
@@ -9615,7 +9644,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="21" thickBot="1">
+    <row r="484" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="11">
         <v>483</v>
       </c>
@@ -9626,7 +9655,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="21" thickBot="1">
+    <row r="485" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="11">
         <v>484</v>
       </c>
@@ -9637,7 +9666,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="61" thickBot="1">
+    <row r="486" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="11">
         <v>485</v>
       </c>
@@ -9648,7 +9677,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="81" thickBot="1">
+    <row r="487" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="11">
         <v>486</v>
       </c>
@@ -9659,7 +9688,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="41" thickBot="1">
+    <row r="488" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="11">
         <v>487</v>
       </c>
@@ -9670,7 +9699,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="21" thickBot="1">
+    <row r="489" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="11">
         <v>488</v>
       </c>
@@ -9681,7 +9710,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="21" thickBot="1">
+    <row r="490" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="11">
         <v>489</v>
       </c>
@@ -9692,7 +9721,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="41" thickBot="1">
+    <row r="491" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="11">
         <v>490</v>
       </c>
@@ -9703,7 +9732,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="21" thickBot="1">
+    <row r="492" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="11">
         <v>491</v>
       </c>
@@ -9714,7 +9743,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="21" thickBot="1">
+    <row r="493" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="11">
         <v>492</v>
       </c>
@@ -9725,7 +9754,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="41" thickBot="1">
+    <row r="494" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="11">
         <v>493</v>
       </c>
@@ -9736,7 +9765,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="61" thickBot="1">
+    <row r="495" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="11">
         <v>494</v>
       </c>
@@ -9747,7 +9776,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="41" thickBot="1">
+    <row r="496" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="11">
         <v>495</v>
       </c>
@@ -9758,7 +9787,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="41" thickBot="1">
+    <row r="497" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="11">
         <v>496</v>
       </c>
@@ -9769,7 +9798,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="21" thickBot="1">
+    <row r="498" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="11">
         <v>497</v>
       </c>
@@ -9780,7 +9809,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="21" thickBot="1">
+    <row r="499" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="11">
         <v>498</v>
       </c>
@@ -9791,7 +9820,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="41" thickBot="1">
+    <row r="500" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="11">
         <v>499</v>
       </c>
@@ -9802,7 +9831,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="21" thickBot="1">
+    <row r="501" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="11">
         <v>500</v>
       </c>
@@ -9813,7 +9842,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="61" thickBot="1">
+    <row r="502" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="11">
         <v>501</v>
       </c>
@@ -9824,7 +9853,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="21" thickBot="1">
+    <row r="503" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="11">
         <v>502</v>
       </c>
@@ -9835,7 +9864,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="21" thickBot="1">
+    <row r="504" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="11">
         <v>503</v>
       </c>
@@ -9846,7 +9875,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="21" thickBot="1">
+    <row r="505" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="11">
         <v>504</v>
       </c>
@@ -9857,7 +9886,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="21" thickBot="1">
+    <row r="506" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="11">
         <v>505</v>
       </c>
@@ -9868,7 +9897,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="21" thickBot="1">
+    <row r="507" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="11">
         <v>506</v>
       </c>
@@ -9879,7 +9908,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="41" thickBot="1">
+    <row r="508" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="11">
         <v>507</v>
       </c>
@@ -9890,7 +9919,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="261" thickBot="1">
+    <row r="509" spans="1:3" ht="244.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="11">
         <v>508</v>
       </c>
@@ -9901,7 +9930,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="381" thickBot="1">
+    <row r="510" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="11">
         <v>509</v>
       </c>
@@ -9912,7 +9941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="21" thickBot="1">
+    <row r="511" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="11">
         <v>510</v>
       </c>
@@ -9923,7 +9952,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="21" thickBot="1">
+    <row r="512" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="11">
         <v>511</v>
       </c>
@@ -9934,7 +9963,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="61" thickBot="1">
+    <row r="513" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="11">
         <v>512</v>
       </c>
@@ -9945,7 +9974,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="21" thickBot="1">
+    <row r="514" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="11">
         <v>513</v>
       </c>
@@ -9956,7 +9985,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="81" thickBot="1">
+    <row r="515" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="11">
         <v>514</v>
       </c>
@@ -9967,7 +9996,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="41" thickBot="1">
+    <row r="516" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="11">
         <v>515</v>
       </c>
@@ -9978,7 +10007,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="101" thickBot="1">
+    <row r="517" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="11">
         <v>516</v>
       </c>
@@ -9989,7 +10018,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="41" thickBot="1">
+    <row r="518" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="11">
         <v>517</v>
       </c>
@@ -10000,7 +10029,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="41" thickBot="1">
+    <row r="519" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="11">
         <v>518</v>
       </c>
@@ -10011,7 +10040,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="121" thickBot="1">
+    <row r="520" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="11">
         <v>519</v>
       </c>
@@ -10022,7 +10051,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="21" thickBot="1">
+    <row r="521" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="11">
         <v>520</v>
       </c>
@@ -10033,7 +10062,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="61" thickBot="1">
+    <row r="522" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="11">
         <v>521</v>
       </c>
@@ -10044,7 +10073,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="81" thickBot="1">
+    <row r="523" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="11">
         <v>522</v>
       </c>
@@ -10055,7 +10084,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="21" thickBot="1">
+    <row r="524" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="11">
         <v>523</v>
       </c>
@@ -10066,7 +10095,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="61" thickBot="1">
+    <row r="525" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="11">
         <v>524</v>
       </c>
@@ -10077,7 +10106,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="61" thickBot="1">
+    <row r="526" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="11">
         <v>525</v>
       </c>
@@ -10088,7 +10117,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="41" thickBot="1">
+    <row r="527" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="11">
         <v>526</v>
       </c>
@@ -10099,7 +10128,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="21" thickBot="1">
+    <row r="528" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="11">
         <v>527</v>
       </c>
@@ -10110,7 +10139,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="101" thickBot="1">
+    <row r="529" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="11">
         <v>528</v>
       </c>
@@ -10121,7 +10150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="101" thickBot="1">
+    <row r="530" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="11">
         <v>529</v>
       </c>
@@ -10132,7 +10161,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="61" thickBot="1">
+    <row r="531" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="11">
         <v>530</v>
       </c>
@@ -10143,7 +10172,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="41" thickBot="1">
+    <row r="532" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="11">
         <v>531</v>
       </c>
@@ -10154,7 +10183,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="61" thickBot="1">
+    <row r="533" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A533" s="11">
         <v>532</v>
       </c>
@@ -10165,7 +10194,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="61" thickBot="1">
+    <row r="534" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A534" s="11">
         <v>533</v>
       </c>
@@ -10176,7 +10205,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="41" thickBot="1">
+    <row r="535" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A535" s="11">
         <v>534</v>
       </c>
@@ -10187,7 +10216,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="21" thickBot="1">
+    <row r="536" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A536" s="11">
         <v>535</v>
       </c>
@@ -10198,7 +10227,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="221" thickBot="1">
+    <row r="537" spans="1:3" ht="207" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="11">
         <v>536</v>
       </c>
@@ -10209,7 +10238,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="41" thickBot="1">
+    <row r="538" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A538" s="11">
         <v>537</v>
       </c>
@@ -10220,7 +10249,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="41" thickBot="1">
+    <row r="539" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="11">
         <v>538</v>
       </c>
@@ -10231,7 +10260,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="141" thickBot="1">
+    <row r="540" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="11">
         <v>539</v>
       </c>
@@ -10242,7 +10271,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="21" thickBot="1">
+    <row r="541" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="11">
         <v>540</v>
       </c>
@@ -10253,7 +10282,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="41" thickBot="1">
+    <row r="542" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="11">
         <v>541</v>
       </c>
@@ -10264,7 +10293,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="41" thickBot="1">
+    <row r="543" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="11">
         <v>542</v>
       </c>
@@ -10275,7 +10304,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="21" thickBot="1">
+    <row r="544" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="11">
         <v>543</v>
       </c>
@@ -10286,7 +10315,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="21" thickBot="1">
+    <row r="545" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="11">
         <v>544</v>
       </c>
@@ -10297,7 +10326,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="41" thickBot="1">
+    <row r="546" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="11">
         <v>545</v>
       </c>
@@ -10308,7 +10337,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="41" thickBot="1">
+    <row r="547" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="11">
         <v>546</v>
       </c>
@@ -10319,7 +10348,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="41" thickBot="1">
+    <row r="548" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="11">
         <v>547</v>
       </c>
@@ -10330,7 +10359,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="21" thickBot="1">
+    <row r="549" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="11">
         <v>548</v>
       </c>
@@ -10341,7 +10370,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="21" thickBot="1">
+    <row r="550" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="11">
         <v>549</v>
       </c>
@@ -10352,7 +10381,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="61" thickBot="1">
+    <row r="551" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="11">
         <v>550</v>
       </c>
@@ -10363,7 +10392,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="41" thickBot="1">
+    <row r="552" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="11">
         <v>551</v>
       </c>
@@ -10374,7 +10403,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="21" thickBot="1">
+    <row r="553" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="11">
         <v>552</v>
       </c>
@@ -10385,7 +10414,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="101" thickBot="1">
+    <row r="554" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="11">
         <v>553</v>
       </c>
@@ -10396,7 +10425,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="41" thickBot="1">
+    <row r="555" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="11">
         <v>554</v>
       </c>
@@ -10407,7 +10436,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="61" thickBot="1">
+    <row r="556" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="11">
         <v>555</v>
       </c>
@@ -10418,7 +10447,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="41" thickBot="1">
+    <row r="557" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="11">
         <v>556</v>
       </c>
@@ -10429,7 +10458,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="21" thickBot="1">
+    <row r="558" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="11">
         <v>557</v>
       </c>
@@ -10440,7 +10469,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="41" thickBot="1">
+    <row r="559" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="11">
         <v>558</v>
       </c>
@@ -10451,7 +10480,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="21" thickBot="1">
+    <row r="560" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="11">
         <v>559</v>
       </c>
@@ -10462,7 +10491,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="41" thickBot="1">
+    <row r="561" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="11">
         <v>560</v>
       </c>
@@ -10473,7 +10502,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="41" thickBot="1">
+    <row r="562" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="11">
         <v>561</v>
       </c>
@@ -10484,7 +10513,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="41" thickBot="1">
+    <row r="563" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="11">
         <v>562</v>
       </c>
@@ -10495,7 +10524,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="21" thickBot="1">
+    <row r="564" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="11">
         <v>563</v>
       </c>
@@ -10506,7 +10535,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="21" thickBot="1">
+    <row r="565" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="11">
         <v>564</v>
       </c>
@@ -10517,7 +10546,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="21" thickBot="1">
+    <row r="566" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="11">
         <v>565</v>
       </c>
@@ -10528,7 +10557,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="21" thickBot="1">
+    <row r="567" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="11">
         <v>566</v>
       </c>
@@ -10539,7 +10568,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="61" thickBot="1">
+    <row r="568" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="11">
         <v>567</v>
       </c>
@@ -10550,7 +10579,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="61" thickBot="1">
+    <row r="569" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="11">
         <v>568</v>
       </c>
@@ -10561,7 +10590,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="21" thickBot="1">
+    <row r="570" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="11">
         <v>569</v>
       </c>
@@ -10572,7 +10601,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="61" thickBot="1">
+    <row r="571" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="11">
         <v>570</v>
       </c>
@@ -10583,7 +10612,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="21" thickBot="1">
+    <row r="572" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="11">
         <v>571</v>
       </c>
@@ -10594,7 +10623,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="41" thickBot="1">
+    <row r="573" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="11">
         <v>572</v>
       </c>
@@ -10605,7 +10634,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="21" thickBot="1">
+    <row r="574" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="11">
         <v>573</v>
       </c>
@@ -10616,7 +10645,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="41" thickBot="1">
+    <row r="575" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="11">
         <v>574</v>
       </c>
@@ -10627,7 +10656,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="61" thickBot="1">
+    <row r="576" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="11">
         <v>575</v>
       </c>
@@ -10638,7 +10667,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="41" thickBot="1">
+    <row r="577" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="11">
         <v>576</v>
       </c>
@@ -10649,7 +10678,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="21" thickBot="1">
+    <row r="578" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="11">
         <v>577</v>
       </c>
@@ -10660,7 +10689,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="21" thickBot="1">
+    <row r="579" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="11">
         <v>578</v>
       </c>
@@ -10671,7 +10700,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="21" thickBot="1">
+    <row r="580" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="11">
         <v>579</v>
       </c>
@@ -10682,7 +10711,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="21" thickBot="1">
+    <row r="581" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="11">
         <v>580</v>
       </c>
@@ -10693,7 +10722,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="41" thickBot="1">
+    <row r="582" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="11">
         <v>581</v>
       </c>
@@ -10704,7 +10733,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="21" thickBot="1">
+    <row r="583" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="11">
         <v>582</v>
       </c>
@@ -10715,7 +10744,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="21" thickBot="1">
+    <row r="584" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="11">
         <v>583</v>
       </c>
@@ -10726,7 +10755,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="21" thickBot="1">
+    <row r="585" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A585" s="11">
         <v>584</v>
       </c>
@@ -10737,7 +10766,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="21" thickBot="1">
+    <row r="586" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="11">
         <v>585</v>
       </c>
@@ -10748,7 +10777,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="21" thickBot="1">
+    <row r="587" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="11">
         <v>586</v>
       </c>
@@ -10759,7 +10788,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="21" thickBot="1">
+    <row r="588" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="11">
         <v>587</v>
       </c>
@@ -10770,7 +10799,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="21" thickBot="1">
+    <row r="589" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="11">
         <v>588</v>
       </c>
@@ -10781,7 +10810,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="409.6" thickBot="1">
+    <row r="590" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="11">
         <v>589</v>
       </c>
@@ -10792,7 +10821,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="41" thickBot="1">
+    <row r="591" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="11">
         <v>590</v>
       </c>
@@ -10803,7 +10832,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="21" thickBot="1">
+    <row r="592" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="11">
         <v>591</v>
       </c>
@@ -10814,7 +10843,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="21" thickBot="1">
+    <row r="593" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="11">
         <v>592</v>
       </c>
@@ -10825,7 +10854,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="21" thickBot="1">
+    <row r="594" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="11">
         <v>593</v>
       </c>
@@ -10836,7 +10865,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="101" thickBot="1">
+    <row r="595" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="11">
         <v>594</v>
       </c>
@@ -10847,7 +10876,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="21" thickBot="1">
+    <row r="596" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="11">
         <v>595</v>
       </c>
@@ -10858,7 +10887,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="21" thickBot="1">
+    <row r="597" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="11">
         <v>596</v>
       </c>
@@ -10869,7 +10898,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="21" thickBot="1">
+    <row r="598" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="11">
         <v>597</v>
       </c>
@@ -10880,7 +10909,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="81" thickBot="1">
+    <row r="599" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="11">
         <v>598</v>
       </c>
@@ -10891,7 +10920,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="81" thickBot="1">
+    <row r="600" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="11">
         <v>599</v>
       </c>
@@ -10902,7 +10931,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="21" thickBot="1">
+    <row r="601" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="11">
         <v>600</v>
       </c>
@@ -10913,7 +10942,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="21" thickBot="1">
+    <row r="602" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="11">
         <v>601</v>
       </c>
@@ -10924,7 +10953,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="61" thickBot="1">
+    <row r="603" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="11">
         <v>602</v>
       </c>
@@ -10935,7 +10964,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="21" thickBot="1">
+    <row r="604" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="11">
         <v>603</v>
       </c>
@@ -10946,7 +10975,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="41" thickBot="1">
+    <row r="605" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="11">
         <v>604</v>
       </c>
@@ -10957,7 +10986,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="21" thickBot="1">
+    <row r="606" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="11">
         <v>605</v>
       </c>
@@ -10968,7 +10997,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="41" thickBot="1">
+    <row r="607" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="11">
         <v>606</v>
       </c>
@@ -10979,7 +11008,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="81" thickBot="1">
+    <row r="608" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="11">
         <v>607</v>
       </c>
@@ -10990,7 +11019,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="101" thickBot="1">
+    <row r="609" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="11">
         <v>608</v>
       </c>
@@ -11001,7 +11030,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="41" thickBot="1">
+    <row r="610" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="11">
         <v>609</v>
       </c>
@@ -11012,7 +11041,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="41" thickBot="1">
+    <row r="611" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="11">
         <v>610</v>
       </c>
@@ -11023,7 +11052,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="21" thickBot="1">
+    <row r="612" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="11">
         <v>611</v>
       </c>
@@ -11034,7 +11063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="61" thickBot="1">
+    <row r="613" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="11">
         <v>612</v>
       </c>
@@ -11045,7 +11074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="21" thickBot="1">
+    <row r="614" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="11">
         <v>613</v>
       </c>
@@ -11056,7 +11085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="21" thickBot="1">
+    <row r="615" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="11">
         <v>614</v>
       </c>
@@ -11067,7 +11096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="21" thickBot="1">
+    <row r="616" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="11">
         <v>615</v>
       </c>
@@ -11078,7 +11107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="41" thickBot="1">
+    <row r="617" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="11">
         <v>616</v>
       </c>
@@ -11089,7 +11118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="21" thickBot="1">
+    <row r="618" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="11">
         <v>617</v>
       </c>
@@ -11100,7 +11129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="61" thickBot="1">
+    <row r="619" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="11">
         <v>618</v>
       </c>
@@ -11111,7 +11140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="41" thickBot="1">
+    <row r="620" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="11">
         <v>619</v>
       </c>
@@ -11122,7 +11151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="41" thickBot="1">
+    <row r="621" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="11">
         <v>620</v>
       </c>
@@ -11133,7 +11162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="21" thickBot="1">
+    <row r="622" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="11">
         <v>621</v>
       </c>
@@ -11144,7 +11173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="21" thickBot="1">
+    <row r="623" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="11">
         <v>622</v>
       </c>
@@ -11155,7 +11184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="21" thickBot="1">
+    <row r="624" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="11">
         <v>623</v>
       </c>
@@ -11166,7 +11195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="21" thickBot="1">
+    <row r="625" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="11">
         <v>624</v>
       </c>
@@ -11177,7 +11206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="41" thickBot="1">
+    <row r="626" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="11">
         <v>625</v>
       </c>
@@ -11188,7 +11217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="21" thickBot="1">
+    <row r="627" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="11">
         <v>626</v>
       </c>
@@ -11199,7 +11228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="101" thickBot="1">
+    <row r="628" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="11">
         <v>627</v>
       </c>
@@ -11210,7 +11239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="81" thickBot="1">
+    <row r="629" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="11">
         <v>628</v>
       </c>
@@ -11221,7 +11250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="81" thickBot="1">
+    <row r="630" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="11">
         <v>629</v>
       </c>
@@ -11232,7 +11261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="21" thickBot="1">
+    <row r="631" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="11">
         <v>630</v>
       </c>
@@ -11243,7 +11272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="21" thickBot="1">
+    <row r="632" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="11">
         <v>631</v>
       </c>
@@ -11254,7 +11283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="633" spans="1:3" s="9" customFormat="1" ht="41" thickBot="1">
+    <row r="633" spans="1:3" s="9" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="11">
         <v>632</v>
       </c>
@@ -11265,7 +11294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="81" thickBot="1">
+    <row r="634" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="11">
         <v>633</v>
       </c>
@@ -11276,7 +11305,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="81" thickBot="1">
+    <row r="635" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="11">
         <v>634</v>
       </c>
@@ -11287,7 +11316,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="61" thickBot="1">
+    <row r="636" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="11">
         <v>635</v>
       </c>
@@ -11298,7 +11327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="201" thickBot="1">
+    <row r="637" spans="1:3" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="11">
         <v>636</v>
       </c>
@@ -11309,7 +11338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="41" thickBot="1">
+    <row r="638" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="11">
         <v>637</v>
       </c>
@@ -11320,7 +11349,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="41" thickBot="1">
+    <row r="639" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="11">
         <v>638</v>
       </c>
@@ -11331,7 +11360,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="41" thickBot="1">
+    <row r="640" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="11">
         <v>639</v>
       </c>
@@ -11342,7 +11371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="81" thickBot="1">
+    <row r="641" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A641" s="11">
         <v>640</v>
       </c>
@@ -11353,7 +11382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="41" thickBot="1">
+    <row r="642" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="11">
         <v>641</v>
       </c>
@@ -11364,7 +11393,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="41" thickBot="1">
+    <row r="643" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="11">
         <v>642</v>
       </c>
@@ -11375,7 +11404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="61" thickBot="1">
+    <row r="644" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="11">
         <v>643</v>
       </c>
@@ -11386,7 +11415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="41" thickBot="1">
+    <row r="645" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="11">
         <v>644</v>
       </c>
@@ -11397,7 +11426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="41" thickBot="1">
+    <row r="646" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="11">
         <v>645</v>
       </c>
@@ -11408,7 +11437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="41" thickBot="1">
+    <row r="647" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="11">
         <v>646</v>
       </c>
@@ -11419,7 +11448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="21" thickBot="1">
+    <row r="648" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="11">
         <v>647</v>
       </c>
@@ -11430,7 +11459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="61" thickBot="1">
+    <row r="649" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="11">
         <v>648</v>
       </c>
@@ -11441,7 +11470,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="21" thickBot="1">
+    <row r="650" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="11">
         <v>649</v>
       </c>
@@ -11452,7 +11481,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="21" thickBot="1">
+    <row r="651" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="11">
         <v>650</v>
       </c>
@@ -11463,7 +11492,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="21" thickBot="1">
+    <row r="652" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="11">
         <v>651</v>
       </c>
@@ -11474,7 +11503,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="21" thickBot="1">
+    <row r="653" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="11">
         <v>652</v>
       </c>
@@ -11485,7 +11514,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="141" thickBot="1">
+    <row r="654" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="11">
         <v>653</v>
       </c>
@@ -11496,7 +11525,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="61" thickBot="1">
+    <row r="655" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="11">
         <v>654</v>
       </c>
@@ -11507,7 +11536,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="21" thickBot="1">
+    <row r="656" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="11">
         <v>655</v>
       </c>
@@ -11518,7 +11547,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="21" thickBot="1">
+    <row r="657" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="11">
         <v>656</v>
       </c>
@@ -11529,7 +11558,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="21" thickBot="1">
+    <row r="658" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="11">
         <v>657</v>
       </c>
@@ -11540,7 +11569,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="41" thickBot="1">
+    <row r="659" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="11">
         <v>658</v>
       </c>
@@ -11551,7 +11580,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="21" thickBot="1">
+    <row r="660" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="11">
         <v>659</v>
       </c>
@@ -11562,7 +11591,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="21" thickBot="1">
+    <row r="661" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="11">
         <v>660</v>
       </c>
@@ -11573,7 +11602,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="21" thickBot="1">
+    <row r="662" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="11">
         <v>661</v>
       </c>
@@ -11584,7 +11613,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="21" thickBot="1">
+    <row r="663" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="11">
         <v>662</v>
       </c>
@@ -11595,7 +11624,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="41" thickBot="1">
+    <row r="664" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="11">
         <v>663</v>
       </c>
@@ -11606,7 +11635,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="21" thickBot="1">
+    <row r="665" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="11">
         <v>664</v>
       </c>
@@ -11617,7 +11646,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="21" thickBot="1">
+    <row r="666" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="11">
         <v>665</v>
       </c>
@@ -11628,7 +11657,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="21" thickBot="1">
+    <row r="667" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="11">
         <v>666</v>
       </c>
@@ -11639,7 +11668,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="141" thickBot="1">
+    <row r="668" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="11">
         <v>667</v>
       </c>
@@ -11650,7 +11679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="41" thickBot="1">
+    <row r="669" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="11">
         <v>668</v>
       </c>
@@ -11661,7 +11690,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="41" thickBot="1">
+    <row r="670" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="11">
         <v>669</v>
       </c>
@@ -11672,7 +11701,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="21" thickBot="1">
+    <row r="671" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="11">
         <v>670</v>
       </c>
@@ -11683,7 +11712,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="41" thickBot="1">
+    <row r="672" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="11">
         <v>671</v>
       </c>
@@ -11694,7 +11723,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="21" thickBot="1">
+    <row r="673" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A673" s="11">
         <v>672</v>
       </c>
@@ -11705,7 +11734,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="21" thickBot="1">
+    <row r="674" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="11">
         <v>673</v>
       </c>
@@ -11716,7 +11745,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="21" thickBot="1">
+    <row r="675" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="11">
         <v>674</v>
       </c>
@@ -11727,7 +11756,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="41" thickBot="1">
+    <row r="676" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="11">
         <v>675</v>
       </c>
@@ -11738,7 +11767,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="21" thickBot="1">
+    <row r="677" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="11">
         <v>676</v>
       </c>
@@ -11749,7 +11778,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="41" thickBot="1">
+    <row r="678" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="11">
         <v>677</v>
       </c>
@@ -11760,7 +11789,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="21" thickBot="1">
+    <row r="679" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="11">
         <v>678</v>
       </c>
@@ -11771,7 +11800,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="21" thickBot="1">
+    <row r="680" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="11">
         <v>679</v>
       </c>
@@ -11782,7 +11811,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="21" thickBot="1">
+    <row r="681" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="11">
         <v>680</v>
       </c>
@@ -11793,7 +11822,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="41" thickBot="1">
+    <row r="682" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="11">
         <v>681</v>
       </c>
@@ -11804,7 +11833,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="41" thickBot="1">
+    <row r="683" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="11">
         <v>682</v>
       </c>
@@ -11815,7 +11844,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="81" thickBot="1">
+    <row r="684" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A684" s="11">
         <v>683</v>
       </c>
@@ -11826,7 +11855,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="81" thickBot="1">
+    <row r="685" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="11">
         <v>684</v>
       </c>
@@ -11837,7 +11866,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="41" thickBot="1">
+    <row r="686" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A686" s="11">
         <v>685</v>
       </c>
@@ -11848,7 +11877,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="81" thickBot="1">
+    <row r="687" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A687" s="11">
         <v>686</v>
       </c>
@@ -11859,7 +11888,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="61" thickBot="1">
+    <row r="688" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="11">
         <v>687</v>
       </c>
@@ -11870,7 +11899,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="41" thickBot="1">
+    <row r="689" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A689" s="11">
         <v>688</v>
       </c>
@@ -11881,7 +11910,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="41" thickBot="1">
+    <row r="690" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A690" s="11">
         <v>689</v>
       </c>
@@ -11892,7 +11921,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="41" thickBot="1">
+    <row r="691" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A691" s="11">
         <v>690</v>
       </c>
@@ -11903,7 +11932,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="41" thickBot="1">
+    <row r="692" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A692" s="11">
         <v>691</v>
       </c>
@@ -11914,7 +11943,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="61" thickBot="1">
+    <row r="693" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="11">
         <v>692</v>
       </c>
@@ -11925,7 +11954,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="41" thickBot="1">
+    <row r="694" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A694" s="11">
         <v>693</v>
       </c>
@@ -11936,7 +11965,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="21" thickBot="1">
+    <row r="695" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A695" s="11">
         <v>694</v>
       </c>
@@ -11947,7 +11976,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="41" thickBot="1">
+    <row r="696" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A696" s="11">
         <v>695</v>
       </c>
@@ -11958,7 +11987,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="21" thickBot="1">
+    <row r="697" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="11">
         <v>696</v>
       </c>
@@ -11969,7 +11998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="21" thickBot="1">
+    <row r="698" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A698" s="11">
         <v>697</v>
       </c>
@@ -11980,7 +12009,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="21" thickBot="1">
+    <row r="699" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A699" s="11">
         <v>698</v>
       </c>
@@ -11991,7 +12020,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="41" thickBot="1">
+    <row r="700" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A700" s="11">
         <v>699</v>
       </c>
@@ -12002,7 +12031,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="21" thickBot="1">
+    <row r="701" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A701" s="11">
         <v>700</v>
       </c>
@@ -12013,7 +12042,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="41" thickBot="1">
+    <row r="702" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A702" s="11">
         <v>701</v>
       </c>
@@ -12024,7 +12053,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="41" thickBot="1">
+    <row r="703" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A703" s="11">
         <v>702</v>
       </c>
@@ -12035,7 +12064,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="201" thickBot="1">
+    <row r="704" spans="1:3" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="11">
         <v>703</v>
       </c>
@@ -12046,7 +12075,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="161" thickBot="1">
+    <row r="705" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" s="11">
         <v>704</v>
       </c>
@@ -12057,7 +12086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="41" thickBot="1">
+    <row r="706" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A706" s="11">
         <v>705</v>
       </c>
@@ -12068,7 +12097,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="41" thickBot="1">
+    <row r="707" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A707" s="11">
         <v>706</v>
       </c>
@@ -12079,7 +12108,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="21" thickBot="1">
+    <row r="708" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A708" s="11">
         <v>707</v>
       </c>
@@ -12090,7 +12119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="21" thickBot="1">
+    <row r="709" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A709" s="11">
         <v>708</v>
       </c>
@@ -12101,7 +12130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="81" thickBot="1">
+    <row r="710" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A710" s="11">
         <v>709</v>
       </c>
@@ -12112,7 +12141,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="41" thickBot="1">
+    <row r="711" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="11">
         <v>710</v>
       </c>
@@ -12123,7 +12152,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="41" thickBot="1">
+    <row r="712" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A712" s="11">
         <v>711</v>
       </c>
@@ -12134,7 +12163,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="61" thickBot="1">
+    <row r="713" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A713" s="11">
         <v>712</v>
       </c>
@@ -12145,7 +12174,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="61" thickBot="1">
+    <row r="714" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="11">
         <v>713</v>
       </c>
@@ -12156,7 +12185,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="41" thickBot="1">
+    <row r="715" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="11">
         <v>714</v>
       </c>
@@ -12167,7 +12196,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="41" thickBot="1">
+    <row r="716" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A716" s="11">
         <v>715</v>
       </c>
@@ -12178,7 +12207,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="41" thickBot="1">
+    <row r="717" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A717" s="11">
         <v>716</v>
       </c>
@@ -12189,7 +12218,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="21" thickBot="1">
+    <row r="718" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A718" s="11">
         <v>717</v>
       </c>
@@ -12200,7 +12229,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="21" thickBot="1">
+    <row r="719" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A719" s="11">
         <v>718</v>
       </c>
@@ -12211,7 +12240,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="21" thickBot="1">
+    <row r="720" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="11">
         <v>719</v>
       </c>
@@ -12222,7 +12251,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="21" thickBot="1">
+    <row r="721" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A721" s="11">
         <v>720</v>
       </c>
@@ -12233,7 +12262,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="81" thickBot="1">
+    <row r="722" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A722" s="11">
         <v>721</v>
       </c>
@@ -12244,7 +12273,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="21" thickBot="1">
+    <row r="723" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A723" s="11">
         <v>722</v>
       </c>
@@ -12255,7 +12284,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="21" thickBot="1">
+    <row r="724" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A724" s="11">
         <v>723</v>
       </c>
@@ -12266,7 +12295,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="21" thickBot="1">
+    <row r="725" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A725" s="11">
         <v>724</v>
       </c>
@@ -12277,7 +12306,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="41" thickBot="1">
+    <row r="726" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="11">
         <v>725</v>
       </c>
@@ -12288,7 +12317,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="21" thickBot="1">
+    <row r="727" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A727" s="11">
         <v>726</v>
       </c>
@@ -12299,7 +12328,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="61" thickBot="1">
+    <row r="728" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A728" s="11">
         <v>727</v>
       </c>
@@ -12310,7 +12339,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="121" thickBot="1">
+    <row r="729" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A729" s="11">
         <v>728</v>
       </c>
@@ -12321,7 +12350,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="81" thickBot="1">
+    <row r="730" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="11">
         <v>729</v>
       </c>
@@ -12332,7 +12361,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="121" thickBot="1">
+    <row r="731" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A731" s="11">
         <v>730</v>
       </c>
@@ -12343,7 +12372,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="41" thickBot="1">
+    <row r="732" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="11">
         <v>731</v>
       </c>
@@ -12354,7 +12383,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="21" thickBot="1">
+    <row r="733" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A733" s="11">
         <v>732</v>
       </c>
@@ -12365,7 +12394,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="21" thickBot="1">
+    <row r="734" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A734" s="11">
         <v>733</v>
       </c>
@@ -12376,7 +12405,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="41" thickBot="1">
+    <row r="735" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="11">
         <v>734</v>
       </c>
@@ -12387,7 +12416,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="21" thickBot="1">
+    <row r="736" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="11">
         <v>735</v>
       </c>
@@ -12398,7 +12427,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="21" thickBot="1">
+    <row r="737" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A737" s="11">
         <v>736</v>
       </c>
@@ -12409,7 +12438,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="21" thickBot="1">
+    <row r="738" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A738" s="11">
         <v>737</v>
       </c>
@@ -12420,7 +12449,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="21" thickBot="1">
+    <row r="739" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A739" s="11">
         <v>738</v>
       </c>
@@ -12431,7 +12460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="41" thickBot="1">
+    <row r="740" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A740" s="11">
         <v>739</v>
       </c>
@@ -12442,7 +12471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="21" thickBot="1">
+    <row r="741" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A741" s="11">
         <v>740</v>
       </c>
@@ -12453,7 +12482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="21" thickBot="1">
+    <row r="742" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A742" s="11">
         <v>741</v>
       </c>
@@ -12464,7 +12493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="21" thickBot="1">
+    <row r="743" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A743" s="11">
         <v>742</v>
       </c>
@@ -12475,7 +12504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="21" thickBot="1">
+    <row r="744" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A744" s="11">
         <v>743</v>
       </c>
@@ -12486,7 +12515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="21" thickBot="1">
+    <row r="745" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A745" s="11">
         <v>744</v>
       </c>
@@ -12497,7 +12526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="41" thickBot="1">
+    <row r="746" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A746" s="11">
         <v>745</v>
       </c>
@@ -12508,7 +12537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="41" thickBot="1">
+    <row r="747" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A747" s="11">
         <v>746</v>
       </c>
@@ -12519,7 +12548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="21" thickBot="1">
+    <row r="748" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A748" s="11">
         <v>747</v>
       </c>
@@ -12530,7 +12559,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="41" thickBot="1">
+    <row r="749" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A749" s="11">
         <v>748</v>
       </c>
@@ -12541,7 +12570,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="41" thickBot="1">
+    <row r="750" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A750" s="11">
         <v>749</v>
       </c>
@@ -12552,7 +12581,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="21" thickBot="1">
+    <row r="751" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A751" s="11">
         <v>750</v>
       </c>
@@ -12563,7 +12592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="21" thickBot="1">
+    <row r="752" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="11">
         <v>751</v>
       </c>
@@ -12574,7 +12603,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="21" thickBot="1">
+    <row r="753" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A753" s="11">
         <v>752</v>
       </c>
@@ -12585,7 +12614,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="21" thickBot="1">
+    <row r="754" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A754" s="11">
         <v>753</v>
       </c>
@@ -12596,7 +12625,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="61" thickBot="1">
+    <row r="755" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A755" s="11">
         <v>754</v>
       </c>
@@ -12607,7 +12636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="41" thickBot="1">
+    <row r="756" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A756" s="11">
         <v>755</v>
       </c>
@@ -12618,7 +12647,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="61" thickBot="1">
+    <row r="757" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A757" s="11">
         <v>756</v>
       </c>
@@ -12629,7 +12658,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="61" thickBot="1">
+    <row r="758" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A758" s="11">
         <v>757</v>
       </c>
@@ -12640,7 +12669,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="81" thickBot="1">
+    <row r="759" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="11">
         <v>758</v>
       </c>
@@ -12651,7 +12680,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="41" thickBot="1">
+    <row r="760" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A760" s="11">
         <v>759</v>
       </c>
@@ -12662,7 +12691,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="81" thickBot="1">
+    <row r="761" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A761" s="11">
         <v>760</v>
       </c>
@@ -12673,7 +12702,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="21" thickBot="1">
+    <row r="762" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A762" s="11">
         <v>761</v>
       </c>
@@ -12684,7 +12713,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="61" thickBot="1">
+    <row r="763" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A763" s="11">
         <v>762</v>
       </c>
@@ -12695,7 +12724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="21" thickBot="1">
+    <row r="764" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A764" s="11">
         <v>763</v>
       </c>
@@ -12706,7 +12735,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="41" thickBot="1">
+    <row r="765" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="11">
         <v>764</v>
       </c>
@@ -12717,7 +12746,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="121" thickBot="1">
+    <row r="766" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="11">
         <v>765</v>
       </c>
@@ -12728,7 +12757,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="21" thickBot="1">
+    <row r="767" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A767" s="11">
         <v>766</v>
       </c>
@@ -12739,7 +12768,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="41" thickBot="1">
+    <row r="768" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="11">
         <v>767</v>
       </c>
@@ -12750,7 +12779,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="101" thickBot="1">
+    <row r="769" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="11">
         <v>768</v>
       </c>
@@ -12761,7 +12790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="21" thickBot="1">
+    <row r="770" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A770" s="11">
         <v>769</v>
       </c>
@@ -12772,7 +12801,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="61" thickBot="1">
+    <row r="771" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A771" s="11">
         <v>770</v>
       </c>
@@ -12783,7 +12812,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="21" thickBot="1">
+    <row r="772" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A772" s="11">
         <v>771</v>
       </c>
@@ -12794,7 +12823,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="21" thickBot="1">
+    <row r="773" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A773" s="11">
         <v>772</v>
       </c>
@@ -12805,7 +12834,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="41" thickBot="1">
+    <row r="774" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A774" s="11">
         <v>773</v>
       </c>
@@ -12816,7 +12845,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="41" thickBot="1">
+    <row r="775" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A775" s="11">
         <v>774</v>
       </c>
@@ -12827,7 +12856,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="21" thickBot="1">
+    <row r="776" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A776" s="11">
         <v>775</v>
       </c>
@@ -12838,7 +12867,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="21" thickBot="1">
+    <row r="777" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A777" s="11">
         <v>776</v>
       </c>
@@ -12849,7 +12878,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="21" thickBot="1">
+    <row r="778" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A778" s="11">
         <v>777</v>
       </c>
@@ -12860,7 +12889,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="41" thickBot="1">
+    <row r="779" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A779" s="11">
         <v>778</v>
       </c>
@@ -12871,7 +12900,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="41" thickBot="1">
+    <row r="780" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A780" s="11">
         <v>779</v>
       </c>
@@ -12882,7 +12911,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="41" thickBot="1">
+    <row r="781" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="11">
         <v>780</v>
       </c>
@@ -12893,7 +12922,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="41" thickBot="1">
+    <row r="782" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A782" s="11">
         <v>781</v>
       </c>
@@ -12904,7 +12933,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="141" thickBot="1">
+    <row r="783" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A783" s="11">
         <v>782</v>
       </c>
@@ -12915,7 +12944,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="161" thickBot="1">
+    <row r="784" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="11">
         <v>783</v>
       </c>
@@ -12926,7 +12955,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="21" thickBot="1">
+    <row r="785" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A785" s="11">
         <v>784</v>
       </c>
@@ -12937,7 +12966,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="41" thickBot="1">
+    <row r="786" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="11">
         <v>785</v>
       </c>
@@ -12948,7 +12977,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="21" thickBot="1">
+    <row r="787" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A787" s="11">
         <v>786</v>
       </c>
@@ -12959,7 +12988,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="101" thickBot="1">
+    <row r="788" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="11">
         <v>787</v>
       </c>
@@ -12970,7 +12999,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="81" thickBot="1">
+    <row r="789" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A789" s="11">
         <v>788</v>
       </c>
@@ -12981,7 +13010,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="21" thickBot="1">
+    <row r="790" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A790" s="11">
         <v>789</v>
       </c>
@@ -12992,7 +13021,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="41" thickBot="1">
+    <row r="791" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A791" s="11">
         <v>790</v>
       </c>
@@ -13003,7 +13032,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="61" thickBot="1">
+    <row r="792" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A792" s="11">
         <v>791</v>
       </c>
@@ -13014,7 +13043,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="121" thickBot="1">
+    <row r="793" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="11">
         <v>792</v>
       </c>
@@ -13025,7 +13054,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="101" thickBot="1">
+    <row r="794" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A794" s="11">
         <v>793</v>
       </c>
@@ -13036,7 +13065,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="61" thickBot="1">
+    <row r="795" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A795" s="11">
         <v>794</v>
       </c>
@@ -13047,7 +13076,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="21" thickBot="1">
+    <row r="796" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A796" s="11">
         <v>795</v>
       </c>
@@ -13058,7 +13087,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="41" thickBot="1">
+    <row r="797" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A797" s="11">
         <v>796</v>
       </c>
@@ -13069,7 +13098,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="101" thickBot="1">
+    <row r="798" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A798" s="11">
         <v>797</v>
       </c>
@@ -13080,7 +13109,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="21" thickBot="1">
+    <row r="799" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A799" s="11">
         <v>798</v>
       </c>
@@ -13091,7 +13120,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="21" thickBot="1">
+    <row r="800" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="11">
         <v>799</v>
       </c>
@@ -13102,7 +13131,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="41" thickBot="1">
+    <row r="801" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A801" s="11">
         <v>800</v>
       </c>
@@ -13113,7 +13142,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="41" thickBot="1">
+    <row r="802" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A802" s="11">
         <v>801</v>
       </c>
@@ -13124,7 +13153,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="41" thickBot="1">
+    <row r="803" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="11">
         <v>802</v>
       </c>
@@ -13135,7 +13164,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="41" thickBot="1">
+    <row r="804" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A804" s="11">
         <v>803</v>
       </c>
@@ -13146,7 +13175,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="21" thickBot="1">
+    <row r="805" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A805" s="11">
         <v>804</v>
       </c>
@@ -13157,7 +13186,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="41" thickBot="1">
+    <row r="806" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A806" s="11">
         <v>805</v>
       </c>
@@ -13168,7 +13197,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="21" thickBot="1">
+    <row r="807" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A807" s="11">
         <v>806</v>
       </c>
@@ -13179,7 +13208,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="81" thickBot="1">
+    <row r="808" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A808" s="11">
         <v>807</v>
       </c>
@@ -13190,7 +13219,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="21" thickBot="1">
+    <row r="809" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A809" s="11">
         <v>808</v>
       </c>
@@ -13201,7 +13230,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="21" thickBot="1">
+    <row r="810" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A810" s="11">
         <v>809</v>
       </c>
@@ -13212,7 +13241,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="21" thickBot="1">
+    <row r="811" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A811" s="11">
         <v>810</v>
       </c>
@@ -13223,7 +13252,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="21" thickBot="1">
+    <row r="812" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A812" s="11">
         <v>811</v>
       </c>
@@ -13234,7 +13263,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="21" thickBot="1">
+    <row r="813" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A813" s="11">
         <v>812</v>
       </c>
@@ -13245,7 +13274,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="21" thickBot="1">
+    <row r="814" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="11">
         <v>813</v>
       </c>
@@ -13256,7 +13285,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="21" thickBot="1">
+    <row r="815" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A815" s="11">
         <v>814</v>
       </c>
@@ -13267,7 +13296,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="61" thickBot="1">
+    <row r="816" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A816" s="11">
         <v>815</v>
       </c>
@@ -13278,7 +13307,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="61" thickBot="1">
+    <row r="817" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A817" s="11">
         <v>816</v>
       </c>
@@ -13289,7 +13318,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="101" thickBot="1">
+    <row r="818" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A818" s="11">
         <v>817</v>
       </c>
@@ -13300,7 +13329,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="21" thickBot="1">
+    <row r="819" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A819" s="11">
         <v>818</v>
       </c>
@@ -13311,7 +13340,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="41" thickBot="1">
+    <row r="820" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A820" s="11">
         <v>819</v>
       </c>
@@ -13322,7 +13351,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="181" thickBot="1">
+    <row r="821" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A821" s="11">
         <v>820</v>
       </c>
@@ -13333,7 +13362,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="81" thickBot="1">
+    <row r="822" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A822" s="11">
         <v>821</v>
       </c>
@@ -13344,7 +13373,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="21" thickBot="1">
+    <row r="823" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A823" s="11">
         <v>822</v>
       </c>
@@ -13355,7 +13384,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="101" thickBot="1">
+    <row r="824" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A824" s="11">
         <v>823</v>
       </c>
@@ -13366,7 +13395,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="21" thickBot="1">
+    <row r="825" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="11">
         <v>824</v>
       </c>
@@ -13377,7 +13406,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="21" thickBot="1">
+    <row r="826" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A826" s="11">
         <v>825</v>
       </c>
@@ -13388,7 +13417,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="101" thickBot="1">
+    <row r="827" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A827" s="11">
         <v>826</v>
       </c>
@@ -13399,7 +13428,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="41" thickBot="1">
+    <row r="828" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A828" s="11">
         <v>827</v>
       </c>
@@ -13410,7 +13439,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="61" thickBot="1">
+    <row r="829" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A829" s="11">
         <v>828</v>
       </c>
@@ -13421,7 +13450,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="21" thickBot="1">
+    <row r="830" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A830" s="11">
         <v>829</v>
       </c>
@@ -13432,7 +13461,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="81" thickBot="1">
+    <row r="831" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A831" s="11">
         <v>830</v>
       </c>
@@ -13443,7 +13472,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="41" thickBot="1">
+    <row r="832" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A832" s="11">
         <v>831</v>
       </c>
@@ -13454,7 +13483,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="833" spans="1:3" ht="21" thickBot="1">
+    <row r="833" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A833" s="11">
         <v>832</v>
       </c>
@@ -13465,7 +13494,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="21" thickBot="1">
+    <row r="834" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A834" s="11">
         <v>833</v>
       </c>
@@ -13476,7 +13505,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="61" thickBot="1">
+    <row r="835" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="11">
         <v>834</v>
       </c>
@@ -13487,7 +13516,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="836" spans="1:3" ht="41" thickBot="1">
+    <row r="836" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="11">
         <v>835</v>
       </c>
@@ -13498,7 +13527,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="837" spans="1:3" ht="61" thickBot="1">
+    <row r="837" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="11">
         <v>836</v>
       </c>
@@ -13509,7 +13538,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="838" spans="1:3" ht="41" thickBot="1">
+    <row r="838" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="11">
         <v>837</v>
       </c>
@@ -13520,7 +13549,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="839" spans="1:3" ht="41" thickBot="1">
+    <row r="839" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A839" s="11">
         <v>838</v>
       </c>
@@ -13531,7 +13560,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="840" spans="1:3" ht="81" thickBot="1">
+    <row r="840" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A840" s="11">
         <v>839</v>
       </c>
@@ -13542,7 +13571,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="841" spans="1:3" ht="21" thickBot="1">
+    <row r="841" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="11">
         <v>840</v>
       </c>
@@ -13553,7 +13582,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="21" thickBot="1">
+    <row r="842" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="11">
         <v>841</v>
       </c>
@@ -13564,7 +13593,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="843" spans="1:3" ht="41" thickBot="1">
+    <row r="843" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="11">
         <v>842</v>
       </c>
@@ -13575,7 +13604,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="41" thickBot="1">
+    <row r="844" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A844" s="11">
         <v>843</v>
       </c>
@@ -13586,7 +13615,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="845" spans="1:3" ht="81" thickBot="1">
+    <row r="845" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A845" s="11">
         <v>844</v>
       </c>
@@ -13597,7 +13626,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="846" spans="1:3" ht="21" thickBot="1">
+    <row r="846" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="11">
         <v>845</v>
       </c>
@@ -13608,7 +13637,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="41" thickBot="1">
+    <row r="847" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="11">
         <v>846</v>
       </c>
@@ -13619,7 +13648,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="848" spans="1:3" ht="41" thickBot="1">
+    <row r="848" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A848" s="11">
         <v>847</v>
       </c>
@@ -13630,7 +13659,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="849" spans="1:3" ht="41" thickBot="1">
+    <row r="849" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="11">
         <v>848</v>
       </c>
@@ -13641,7 +13670,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="21" thickBot="1">
+    <row r="850" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A850" s="11">
         <v>849</v>
       </c>
@@ -13652,7 +13681,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="121" thickBot="1">
+    <row r="851" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A851" s="11">
         <v>850</v>
       </c>
@@ -13663,7 +13692,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="41" thickBot="1">
+    <row r="852" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="11">
         <v>851</v>
       </c>
@@ -13674,7 +13703,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="61" thickBot="1">
+    <row r="853" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A853" s="11">
         <v>852</v>
       </c>
@@ -13685,7 +13714,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="41" thickBot="1">
+    <row r="854" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A854" s="11">
         <v>853</v>
       </c>
@@ -13696,7 +13725,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="41" thickBot="1">
+    <row r="855" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="11">
         <v>854</v>
       </c>
@@ -13707,7 +13736,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="81" thickBot="1">
+    <row r="856" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A856" s="11">
         <v>855</v>
       </c>
@@ -13718,7 +13747,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="81" thickBot="1">
+    <row r="857" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A857" s="11">
         <v>856</v>
       </c>
@@ -13729,7 +13758,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="41" thickBot="1">
+    <row r="858" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A858" s="11">
         <v>857</v>
       </c>
@@ -13740,7 +13769,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="61" thickBot="1">
+    <row r="859" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A859" s="11">
         <v>858</v>
       </c>
@@ -13751,7 +13780,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="21" thickBot="1">
+    <row r="860" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A860" s="11">
         <v>859</v>
       </c>
@@ -13762,7 +13791,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="861" spans="1:3" ht="21" thickBot="1">
+    <row r="861" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A861" s="11">
         <v>860</v>
       </c>
@@ -13773,7 +13802,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="21" thickBot="1">
+    <row r="862" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A862" s="11">
         <v>861</v>
       </c>
@@ -13784,7 +13813,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="21" thickBot="1">
+    <row r="863" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A863" s="11">
         <v>862</v>
       </c>
@@ -13795,7 +13824,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="21" thickBot="1">
+    <row r="864" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A864" s="11">
         <v>863</v>
       </c>
@@ -13806,7 +13835,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="21" thickBot="1">
+    <row r="865" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A865" s="11">
         <v>864</v>
       </c>
@@ -13817,7 +13846,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="866" spans="1:3" ht="41" thickBot="1">
+    <row r="866" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A866" s="11">
         <v>865</v>
       </c>
@@ -13828,7 +13857,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="867" spans="1:3" ht="61" thickBot="1">
+    <row r="867" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A867" s="11">
         <v>866</v>
       </c>
@@ -13839,7 +13868,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="101" thickBot="1">
+    <row r="868" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A868" s="11">
         <v>867</v>
       </c>
@@ -13850,7 +13879,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="869" spans="1:3" ht="41" thickBot="1">
+    <row r="869" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="11">
         <v>868</v>
       </c>
@@ -13861,7 +13890,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="870" spans="1:3" ht="41" thickBot="1">
+    <row r="870" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A870" s="11">
         <v>869</v>
       </c>
@@ -13872,7 +13901,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="41" thickBot="1">
+    <row r="871" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A871" s="11">
         <v>870</v>
       </c>
@@ -13883,7 +13912,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="872" spans="1:3" ht="41" thickBot="1">
+    <row r="872" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A872" s="11">
         <v>871</v>
       </c>
@@ -13894,7 +13923,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="873" spans="1:3" ht="41" thickBot="1">
+    <row r="873" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A873" s="11">
         <v>872</v>
       </c>
@@ -13905,7 +13934,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="41" thickBot="1">
+    <row r="874" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A874" s="11">
         <v>873</v>
       </c>
@@ -13916,7 +13945,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="875" spans="1:3" ht="61" thickBot="1">
+    <row r="875" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A875" s="11">
         <v>874</v>
       </c>
@@ -13927,7 +13956,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="876" spans="1:3" ht="81" thickBot="1">
+    <row r="876" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A876" s="11">
         <v>875</v>
       </c>
@@ -13938,7 +13967,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="41" thickBot="1">
+    <row r="877" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A877" s="11">
         <v>876</v>
       </c>
@@ -13949,7 +13978,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="878" spans="1:3" ht="41" thickBot="1">
+    <row r="878" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A878" s="11">
         <v>877</v>
       </c>
@@ -13960,7 +13989,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="181" thickBot="1">
+    <row r="879" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A879" s="11">
         <v>878</v>
       </c>
@@ -13971,7 +14000,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="41" thickBot="1">
+    <row r="880" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="11">
         <v>879</v>
       </c>
@@ -13982,7 +14011,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="41" thickBot="1">
+    <row r="881" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A881" s="11">
         <v>880</v>
       </c>
@@ -13993,7 +14022,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="21" thickBot="1">
+    <row r="882" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A882" s="11">
         <v>881</v>
       </c>
@@ -14004,7 +14033,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="41" thickBot="1">
+    <row r="883" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A883" s="11">
         <v>882</v>
       </c>
@@ -14015,7 +14044,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="21" thickBot="1">
+    <row r="884" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A884" s="11">
         <v>883</v>
       </c>
@@ -14026,7 +14055,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="21" thickBot="1">
+    <row r="885" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A885" s="11">
         <v>884</v>
       </c>
@@ -14037,7 +14066,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="41" thickBot="1">
+    <row r="886" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A886" s="11">
         <v>885</v>
       </c>
@@ -14048,7 +14077,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="61" thickBot="1">
+    <row r="887" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A887" s="11">
         <v>886</v>
       </c>
@@ -14059,7 +14088,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="21" thickBot="1">
+    <row r="888" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A888" s="11">
         <v>887</v>
       </c>
@@ -14070,7 +14099,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="41" thickBot="1">
+    <row r="889" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A889" s="11">
         <v>888</v>
       </c>
@@ -14081,7 +14110,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="61" thickBot="1">
+    <row r="890" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A890" s="11">
         <v>889</v>
       </c>
@@ -14092,7 +14121,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="41" thickBot="1">
+    <row r="891" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A891" s="11">
         <v>890</v>
       </c>
@@ -14103,7 +14132,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="21" thickBot="1">
+    <row r="892" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A892" s="11">
         <v>891</v>
       </c>
@@ -14114,7 +14143,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="61" thickBot="1">
+    <row r="893" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A893" s="11">
         <v>892</v>
       </c>
@@ -14125,7 +14154,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="61" thickBot="1">
+    <row r="894" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A894" s="11">
         <v>893</v>
       </c>
@@ -14136,7 +14165,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="61" thickBot="1">
+    <row r="895" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A895" s="11">
         <v>894</v>
       </c>
@@ -14147,7 +14176,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="21" thickBot="1">
+    <row r="896" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A896" s="11">
         <v>895</v>
       </c>
@@ -14158,7 +14187,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="21" thickBot="1">
+    <row r="897" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A897" s="11">
         <v>896</v>
       </c>
@@ -14169,7 +14198,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="21" thickBot="1">
+    <row r="898" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A898" s="11">
         <v>897</v>
       </c>
@@ -14180,7 +14209,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="21" thickBot="1">
+    <row r="899" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A899" s="11">
         <v>898</v>
       </c>
@@ -14191,7 +14220,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="21" thickBot="1">
+    <row r="900" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A900" s="11">
         <v>899</v>
       </c>
@@ -14202,7 +14231,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="161" thickBot="1">
+    <row r="901" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A901" s="11">
         <v>900</v>
       </c>
@@ -14213,7 +14242,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="181" thickBot="1">
+    <row r="902" spans="1:3" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A902" s="11">
         <v>901</v>
       </c>
@@ -14224,7 +14253,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="21" thickBot="1">
+    <row r="903" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A903" s="11">
         <v>902</v>
       </c>
@@ -14235,7 +14264,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="41" thickBot="1">
+    <row r="904" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A904" s="11">
         <v>903</v>
       </c>
@@ -14246,7 +14275,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="21" thickBot="1">
+    <row r="905" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A905" s="11">
         <v>904</v>
       </c>
@@ -14257,7 +14286,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="21" thickBot="1">
+    <row r="906" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A906" s="11">
         <v>905</v>
       </c>
@@ -14268,7 +14297,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="21" thickBot="1">
+    <row r="907" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A907" s="11">
         <v>906</v>
       </c>
@@ -14279,7 +14308,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="21" thickBot="1">
+    <row r="908" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A908" s="11">
         <v>907</v>
       </c>
@@ -14290,7 +14319,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="21" thickBot="1">
+    <row r="909" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A909" s="11">
         <v>908</v>
       </c>
@@ -14301,7 +14330,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="21" thickBot="1">
+    <row r="910" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A910" s="11">
         <v>909</v>
       </c>
@@ -14312,7 +14341,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="41" thickBot="1">
+    <row r="911" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A911" s="11">
         <v>910</v>
       </c>
@@ -14323,7 +14352,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="21" thickBot="1">
+    <row r="912" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A912" s="11">
         <v>911</v>
       </c>
@@ -14334,7 +14363,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="61" thickBot="1">
+    <row r="913" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A913" s="11">
         <v>912</v>
       </c>
@@ -14345,7 +14374,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="21" thickBot="1">
+    <row r="914" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A914" s="11">
         <v>913</v>
       </c>
@@ -14356,7 +14385,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="21" thickBot="1">
+    <row r="915" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A915" s="11">
         <v>914</v>
       </c>
@@ -14367,7 +14396,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="41" thickBot="1">
+    <row r="916" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A916" s="11">
         <v>915</v>
       </c>
@@ -14378,7 +14407,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="21" thickBot="1">
+    <row r="917" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A917" s="11">
         <v>916</v>
       </c>
@@ -14389,7 +14418,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="61" thickBot="1">
+    <row r="918" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A918" s="11">
         <v>917</v>
       </c>
@@ -14400,7 +14429,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="61" thickBot="1">
+    <row r="919" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A919" s="11">
         <v>918</v>
       </c>
@@ -14411,7 +14440,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="21" thickBot="1">
+    <row r="920" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A920" s="11">
         <v>919</v>
       </c>
@@ -14422,7 +14451,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="21" thickBot="1">
+    <row r="921" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A921" s="11">
         <v>920</v>
       </c>
@@ -14433,7 +14462,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="21" thickBot="1">
+    <row r="922" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A922" s="11">
         <v>921</v>
       </c>
@@ -14444,7 +14473,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="41" thickBot="1">
+    <row r="923" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A923" s="11">
         <v>922</v>
       </c>
@@ -14455,7 +14484,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="21" thickBot="1">
+    <row r="924" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A924" s="11">
         <v>923</v>
       </c>
@@ -14466,7 +14495,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="21" thickBot="1">
+    <row r="925" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A925" s="11">
         <v>924</v>
       </c>
@@ -14477,7 +14506,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="161" thickBot="1">
+    <row r="926" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A926" s="11">
         <v>925</v>
       </c>
@@ -14488,7 +14517,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="41" thickBot="1">
+    <row r="927" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A927" s="11">
         <v>926</v>
       </c>
@@ -14499,7 +14528,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="41" thickBot="1">
+    <row r="928" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A928" s="11">
         <v>927</v>
       </c>
@@ -14510,7 +14539,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="101" thickBot="1">
+    <row r="929" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A929" s="11">
         <v>928</v>
       </c>
@@ -14521,7 +14550,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="121" thickBot="1">
+    <row r="930" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A930" s="11">
         <v>929</v>
       </c>
@@ -14532,7 +14561,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="161" thickBot="1">
+    <row r="931" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A931" s="11">
         <v>930</v>
       </c>
@@ -14543,7 +14572,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="41" thickBot="1">
+    <row r="932" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A932" s="11">
         <v>931</v>
       </c>
@@ -14554,7 +14583,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="933" spans="1:3" ht="41" thickBot="1">
+    <row r="933" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A933" s="11">
         <v>932</v>
       </c>
@@ -14565,7 +14594,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="21" thickBot="1">
+    <row r="934" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A934" s="11">
         <v>933</v>
       </c>
@@ -14576,7 +14605,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="935" spans="1:3" ht="41" thickBot="1">
+    <row r="935" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A935" s="11">
         <v>934</v>
       </c>
@@ -14587,7 +14616,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="936" spans="1:3" ht="21" thickBot="1">
+    <row r="936" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A936" s="11">
         <v>935</v>
       </c>
@@ -14598,7 +14627,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="21" thickBot="1">
+    <row r="937" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A937" s="11">
         <v>936</v>
       </c>
@@ -14609,7 +14638,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="21" thickBot="1">
+    <row r="938" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A938" s="11">
         <v>937</v>
       </c>
@@ -14620,7 +14649,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="201" thickBot="1">
+    <row r="939" spans="1:3" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A939" s="11">
         <v>938</v>
       </c>
@@ -14631,7 +14660,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="61" thickBot="1">
+    <row r="940" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A940" s="11">
         <v>939</v>
       </c>
@@ -14642,7 +14671,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="61" thickBot="1">
+    <row r="941" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A941" s="11">
         <v>940</v>
       </c>
@@ -14653,7 +14682,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="161" thickBot="1">
+    <row r="942" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A942" s="11">
         <v>941</v>
       </c>
@@ -14664,7 +14693,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="61" thickBot="1">
+    <row r="943" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A943" s="11">
         <v>942</v>
       </c>
@@ -14675,7 +14704,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="41" thickBot="1">
+    <row r="944" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A944" s="11">
         <v>943</v>
       </c>
@@ -14686,7 +14715,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="61" thickBot="1">
+    <row r="945" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A945" s="11">
         <v>944</v>
       </c>
@@ -14697,7 +14726,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="41" thickBot="1">
+    <row r="946" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A946" s="11">
         <v>945</v>
       </c>
@@ -14708,7 +14737,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="21" thickBot="1">
+    <row r="947" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A947" s="11">
         <v>946</v>
       </c>
@@ -14719,7 +14748,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="141" thickBot="1">
+    <row r="948" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A948" s="11">
         <v>947</v>
       </c>
@@ -14730,7 +14759,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="81" thickBot="1">
+    <row r="949" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A949" s="11">
         <v>948</v>
       </c>
@@ -14741,7 +14770,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="41" thickBot="1">
+    <row r="950" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A950" s="11">
         <v>949</v>
       </c>
@@ -14752,7 +14781,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="21" thickBot="1">
+    <row r="951" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A951" s="11">
         <v>950</v>
       </c>
@@ -14763,7 +14792,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="41" thickBot="1">
+    <row r="952" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A952" s="11">
         <v>951</v>
       </c>
@@ -14774,7 +14803,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="21" thickBot="1">
+    <row r="953" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A953" s="11">
         <v>952</v>
       </c>
@@ -14785,7 +14814,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="81" thickBot="1">
+    <row r="954" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A954" s="11">
         <v>953</v>
       </c>
@@ -14796,7 +14825,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="61" thickBot="1">
+    <row r="955" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A955" s="11">
         <v>954</v>
       </c>
@@ -14807,7 +14836,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="61" thickBot="1">
+    <row r="956" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A956" s="11">
         <v>955</v>
       </c>
@@ -14818,7 +14847,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="21" thickBot="1">
+    <row r="957" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A957" s="11">
         <v>956</v>
       </c>
@@ -14829,7 +14858,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="61" thickBot="1">
+    <row r="958" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A958" s="11">
         <v>957</v>
       </c>
@@ -14840,7 +14869,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="121" thickBot="1">
+    <row r="959" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A959" s="11">
         <v>958</v>
       </c>
@@ -14851,7 +14880,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="21" thickBot="1">
+    <row r="960" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A960" s="11">
         <v>959</v>
       </c>
@@ -14862,7 +14891,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="21" thickBot="1">
+    <row r="961" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A961" s="11">
         <v>960</v>
       </c>
@@ -14873,7 +14902,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="301" thickBot="1">
+    <row r="962" spans="1:3" ht="282" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A962" s="11">
         <v>961</v>
       </c>
@@ -14884,7 +14913,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="41" thickBot="1">
+    <row r="963" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A963" s="11">
         <v>962</v>
       </c>
@@ -14895,7 +14924,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="41" thickBot="1">
+    <row r="964" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A964" s="11">
         <v>963</v>
       </c>
@@ -14906,7 +14935,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="141" thickBot="1">
+    <row r="965" spans="1:3" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A965" s="11">
         <v>964</v>
       </c>
@@ -14917,7 +14946,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="61" thickBot="1">
+    <row r="966" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A966" s="11">
         <v>965</v>
       </c>
@@ -14928,7 +14957,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="41" thickBot="1">
+    <row r="967" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A967" s="11">
         <v>966</v>
       </c>
@@ -14939,7 +14968,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="21" thickBot="1">
+    <row r="968" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A968" s="11">
         <v>967</v>
       </c>
@@ -14950,7 +14979,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="21" thickBot="1">
+    <row r="969" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A969" s="11">
         <v>968</v>
       </c>
@@ -14961,7 +14990,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="41" thickBot="1">
+    <row r="970" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A970" s="11">
         <v>969</v>
       </c>
@@ -14972,7 +15001,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="971" spans="1:3" ht="101" thickBot="1">
+    <row r="971" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A971" s="11">
         <v>970</v>
       </c>
@@ -14983,7 +15012,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="972" spans="1:3" ht="41" thickBot="1">
+    <row r="972" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A972" s="11">
         <v>971</v>
       </c>
@@ -14994,7 +15023,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="973" spans="1:3" ht="21" thickBot="1">
+    <row r="973" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A973" s="11">
         <v>972</v>
       </c>
@@ -15005,7 +15034,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="974" spans="1:3" ht="41" thickBot="1">
+    <row r="974" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A974" s="11">
         <v>973</v>
       </c>
@@ -15016,7 +15045,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="975" spans="1:3" ht="41" thickBot="1">
+    <row r="975" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A975" s="11">
         <v>974</v>
       </c>
@@ -15027,7 +15056,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="976" spans="1:3" ht="41" thickBot="1">
+    <row r="976" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A976" s="11">
         <v>975</v>
       </c>
@@ -15038,7 +15067,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="977" spans="1:3" ht="241" thickBot="1">
+    <row r="977" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A977" s="11">
         <v>976</v>
       </c>
@@ -15049,7 +15078,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="978" spans="1:3" ht="41" thickBot="1">
+    <row r="978" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A978" s="11">
         <v>977</v>
       </c>
@@ -15060,7 +15089,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="979" spans="1:3" ht="41" thickBot="1">
+    <row r="979" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A979" s="11">
         <v>978</v>
       </c>
@@ -15071,7 +15100,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="101" thickBot="1">
+    <row r="980" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A980" s="11">
         <v>979</v>
       </c>
@@ -15082,7 +15111,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="981" spans="1:3" ht="61" thickBot="1">
+    <row r="981" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A981" s="11">
         <v>980</v>
       </c>
@@ -15093,7 +15122,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="982" spans="1:3" ht="41" thickBot="1">
+    <row r="982" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A982" s="11">
         <v>981</v>
       </c>
@@ -15104,7 +15133,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="41" thickBot="1">
+    <row r="983" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A983" s="11">
         <v>982</v>
       </c>
@@ -15115,7 +15144,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="121" thickBot="1">
+    <row r="984" spans="1:3" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A984" s="11">
         <v>983</v>
       </c>
@@ -15126,7 +15155,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="985" spans="1:3" ht="41" thickBot="1">
+    <row r="985" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A985" s="11">
         <v>984</v>
       </c>
@@ -15137,7 +15166,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="986" spans="1:3" ht="21" thickBot="1">
+    <row r="986" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A986" s="11">
         <v>985</v>
       </c>
@@ -15148,7 +15177,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="987" spans="1:3" ht="81" thickBot="1">
+    <row r="987" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A987" s="11">
         <v>986</v>
       </c>
@@ -15159,7 +15188,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="988" spans="1:3" ht="41" thickBot="1">
+    <row r="988" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A988" s="11">
         <v>987</v>
       </c>
@@ -15170,7 +15199,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="989" spans="1:3" ht="21" thickBot="1">
+    <row r="989" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A989" s="11">
         <v>988</v>
       </c>
@@ -15181,7 +15210,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="990" spans="1:3" ht="41" thickBot="1">
+    <row r="990" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A990" s="11">
         <v>989</v>
       </c>
@@ -15192,7 +15221,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="991" spans="1:3" ht="41" thickBot="1">
+    <row r="991" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A991" s="11">
         <v>990</v>
       </c>
@@ -15203,11 +15232,275 @@
         <v>1107</v>
       </c>
     </row>
+    <row r="992" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A992" s="11">
+        <v>991</v>
+      </c>
+      <c r="B992" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C992" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A993" s="11">
+        <v>992</v>
+      </c>
+      <c r="B993" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C993" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A994" s="11">
+        <v>993</v>
+      </c>
+      <c r="B994" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C994" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A995" s="11">
+        <v>994</v>
+      </c>
+      <c r="B995" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C995" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A996" s="11">
+        <v>995</v>
+      </c>
+      <c r="B996" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C996" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A997" s="11">
+        <v>996</v>
+      </c>
+      <c r="B997" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C997" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A998" s="11">
+        <v>997</v>
+      </c>
+      <c r="B998" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C998" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" s="9" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A999" s="11">
+        <v>998</v>
+      </c>
+      <c r="B999" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C999" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="11">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1000" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1001" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="11">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1002" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="11">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1003" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="11">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1004" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="11">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1005" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="11">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1006" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="11">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1007" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="11">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1008" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="11">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1009" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="11">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1010" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="11">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1011" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="11">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1012" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="11">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1013" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="11">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1014" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="11">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1015" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C668" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C991"/>
   <hyperlinks>
-    <hyperlink ref="B673" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/check-for-bst/1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B674" r:id="rId2" display="https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B673" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/check-for-bst/1"/>
+    <hyperlink ref="B674" r:id="rId2" display="https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -15215,20 +15508,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="1" max="1" width="59.875" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15236,7 +15529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -15244,7 +15537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40">
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -15252,7 +15545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="80">
+    <row r="4" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>270</v>
       </c>
@@ -15260,7 +15553,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>326</v>
       </c>
@@ -15268,7 +15561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40">
+    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>335</v>
       </c>
@@ -15276,7 +15569,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="40">
+    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>383</v>
       </c>
@@ -15284,7 +15577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40">
+    <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>407</v>
       </c>
@@ -15292,7 +15585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
+    <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>417</v>
       </c>
@@ -15300,7 +15593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="100">
+    <row r="10" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>439</v>
       </c>
@@ -15308,7 +15601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40">
+    <row r="11" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>558</v>
       </c>
@@ -15316,7 +15609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>621</v>
       </c>
@@ -15324,7 +15617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>777</v>
       </c>
@@ -15333,7 +15626,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>